--- a/items.xlsx
+++ b/items.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\eledah\Documents\GitHub\pmonitor\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D69436C-3A28-4C82-9C23-453C6C4A2543}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A3E4C165-B70A-40C6-984A-952F4E9C25D8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7095" yWindow="1650" windowWidth="11580" windowHeight="10350" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -51,12 +51,6 @@
     <t>آیفون ۱۳ نان‌اکتیو</t>
   </si>
   <si>
-    <t>https://www.digikala.com/product/dkp-1055435/%D9%BE%D9%86%DB%8C%D8%B1-%D8%B3%D9%81%DB%8C%D8%AF-%D8%AA%D8%A7%D8%B2%D9%87-%DA%A9%D8%A7%D9%84%D9%87-400-%DA%AF%D8%B1%D9%85/</t>
-  </si>
-  <si>
-    <t>پنیر سفید فتا کاله</t>
-  </si>
-  <si>
     <t>https://www.digikala.com/product/dkp-11602682/%DA%A9%D8%AA%D8%A7%D8%A8-%D9%87%D8%B1-%D8%AF%D9%88-%D8%AF%D8%B1-%D9%86%D9%87%D8%A7%DB%8C%D8%AA-%D9%85%DB%8C-%D9%85%DB%8C%D8%B1%D9%86%D8%AF-%D8%A7%D8%AB%D8%B1-%D8%A2%D8%AF%D8%A7%D9%85-%D8%B3%DB%8C%D9%84%D9%88%D8%B1%D8%A7-%D9%86%D8%B4%D8%B1-%D8%A2%D8%B0%D8%B1%DA%AF%D9%88%D9%86/</t>
   </si>
   <si>
@@ -145,16 +139,30 @@
   </si>
   <si>
     <t>https://www.digikala.com/product/dkp-9089262/%D9%81%D9%84%D8%B4-%D9%85%D9%85%D9%88%D8%B1%DB%8C-%DA%A9%D9%88%D8%A6%DB%8C%D9%86-%D8%AA%DA%A9-%D9%85%D8%AF%D9%84-glink-%D8%B8%D8%B1%D9%81%DB%8C%D8%AA-64-%DA%AF%DB%8C%DA%AF%D8%A7%D8%A8%D8%A7%DB%8C%D8%AA/</t>
+  </si>
+  <si>
+    <t>پنیر فتا دوشه هراز- 400 گرم</t>
+  </si>
+  <si>
+    <t>https://www.digikala.com/product/dkp-1485597/%D9%BE%D9%86%DB%8C%D8%B1-%D9%81%D8%AA%D8%A7-%D8%AF%D9%88%D8%B4%D9%87-%D9%87%D8%B1%D8%A7%D8%B2-%D9%85%D9%82%D8%AF%D8%A7%D8%B1-400-%DA%AF%D8%B1%D9%85/</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -177,13 +185,16 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -464,8 +475,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B20"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="B19" sqref="B19"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -507,134 +518,137 @@
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>8</v>
+      <c r="A5" s="1" t="s">
+        <v>39</v>
       </c>
       <c r="B5" t="s">
-        <v>9</v>
+        <v>38</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B6" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B7" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B8" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B9" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B10" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B11" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B12" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B13" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B14" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B15" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B16" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B17" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B18" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B19" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B20" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A5" r:id="rId1" xr:uid="{E1824E7B-EC75-45B6-9BC4-BF6F5B57F816}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/items.xlsx
+++ b/items.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\eledah\Documents\GitHub\pmonitor\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A3E4C165-B70A-40C6-984A-952F4E9C25D8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CFC26181-C2E1-440D-83F7-BA920FA1B3AF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -151,18 +151,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -185,16 +177,14 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
-  <cellStyles count="2">
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+  <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -476,7 +466,7 @@
   <dimension ref="A1:B20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -646,9 +636,7 @@
       </c>
     </row>
   </sheetData>
-  <hyperlinks>
-    <hyperlink ref="A5" r:id="rId1" xr:uid="{E1824E7B-EC75-45B6-9BC4-BF6F5B57F816}"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId1"/>
 </worksheet>
 </file>
--- a/items.xlsx
+++ b/items.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\eledah\Documents\GitHub\pmonitor\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CFC26181-C2E1-440D-83F7-BA920FA1B3AF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{47FA8255-E69C-412B-B691-F83B7B1DA0C9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="52">
   <si>
     <t>https://www.digikala.com/product/dkp-2462482/%D8%AE%DB%8C%D8%A7%D8%B1-%D8%B4%D9%88%D8%B1-%D8%B3%D8%A7%D9%84%DB%8C-15-%DA%A9%DB%8C%D9%84%D9%88%DA%AF%D8%B1%D9%85/</t>
   </si>
@@ -145,6 +145,42 @@
   </si>
   <si>
     <t>https://www.digikala.com/product/dkp-1485597/%D9%BE%D9%86%DB%8C%D8%B1-%D9%81%D8%AA%D8%A7-%D8%AF%D9%88%D8%B4%D9%87-%D9%87%D8%B1%D8%A7%D8%B2-%D9%85%D9%82%D8%AF%D8%A7%D8%B1-400-%DA%AF%D8%B1%D9%85/</t>
+  </si>
+  <si>
+    <t>کنسرو ماهی تن در روغن مایع ساحل - 180 گرم</t>
+  </si>
+  <si>
+    <t>https://www.digikala.com/product/dkp-797406/%DA%A9%D9%86%D8%B3%D8%B1%D9%88-%D9%85%D8%A7%D9%87%DB%8C-%D8%AA%D9%86-%D8%AF%D8%B1-%D8%B1%D9%88%D8%BA%D9%86-%D9%85%D8%A7%DB%8C%D8%B9-%D8%B3%D8%A7%D8%AD%D9%84-180-%DA%AF%D8%B1%D9%85/</t>
+  </si>
+  <si>
+    <t>روغن آفتابگردان غنچه پلاس - 900 میلی لیتر</t>
+  </si>
+  <si>
+    <t>https://www.digikala.com/product/dkp-8511786/%D8%B1%D9%88%D8%BA%D9%86-%D8%A2%D9%81%D8%AA%D8%A7%D8%A8%DA%AF%D8%B1%D8%AF%D8%A7%D9%86-%D8%AD%D8%A7%D9%88%DB%8C-%D8%AA%D9%88%DA%A9%D9%88%D9%81%D8%B1%D9%88%D9%84-%D8%BA%D9%86%DA%86%D9%87-%D9%BE%D9%84%D8%A7%D8%B3-900-%D9%85%DB%8C%D9%84%DB%8C-%D9%84%DB%8C%D8%AA%D8%B1/</t>
+  </si>
+  <si>
+    <t>تخم مرغ گرید B پروتانا بسته 20 عددی</t>
+  </si>
+  <si>
+    <t>https://www.digikala.com/product/dkp-1433777/%D8%AA%D8%AE%D9%85-%D9%85%D8%B1%D8%BA-%D8%AA%D8%A7%D8%B2%D9%87-%D8%AA%D9%86%D8%B8%DB%8C%D9%85-%D8%A8%D8%A7%D8%B2%D8%A7%D8%B1-%D9%BE%D8%B1%D9%88%D8%AA%D8%A7%D9%86%D8%A7-%D8%A8%D8%B3%D8%AA%D9%87-20-%D8%B9%D8%AF%D8%AF%DB%8C/</t>
+  </si>
+  <si>
+    <t>سینه مرغ بی پوست مهیا پروتئین - 900 گرم</t>
+  </si>
+  <si>
+    <t>https://www.digikala.com/product/dkp-792166/%D8%B3%DB%8C%D9%86%D9%87-%D9%85%D8%B1%D8%BA-%D8%A8%DB%8C-%D9%BE%D9%88%D8%B3%D8%AA-%D9%85%D9%87%DB%8C%D8%A7-%D9%BE%D8%B1%D9%88%D8%AA%D8%A6%DB%8C%D9%86-900-%DA%AF%D8%B1%D9%85/</t>
+  </si>
+  <si>
+    <t>هارد اکسترنال وسترن دیجیتال 1 ترابایت</t>
+  </si>
+  <si>
+    <t>https://www.digikala.com/product/dkp-2309086/%D9%87%D8%A7%D8%B1%D8%AF-%D8%A7%DA%A9%D8%B3%D8%AA%D8%B1%D9%86%D8%A7%D9%84-%D9%88%D8%B3%D8%AA%D8%B1%D9%86-%D8%AF%DB%8C%D8%AC%DB%8C%D8%AA%D8%A7%D9%84-%D9%85%D8%AF%D9%84-my-passport-wdbyvg0010bbk-wesn-%D8%B8%D8%B1%D9%81%DB%8C%D8%AA-1-%D8%AA%D8%B1%D8%A7%D8%A8%D8%A7%DB%8C%D8%AA/</t>
+  </si>
+  <si>
+    <t>link</t>
+  </si>
+  <si>
+    <t>name</t>
   </si>
 </sst>
 </file>
@@ -463,10 +499,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B20"/>
+  <dimension ref="A1:B26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -477,162 +513,210 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="B1" t="s">
-        <v>1</v>
+        <v>51</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
         <v>6</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B5" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B6" t="s">
         <v>38</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>8</v>
-      </c>
-      <c r="B6" t="s">
-        <v>9</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="B7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B8" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B9" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B10" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B11" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B12" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B13" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B14" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B15" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B16" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B17" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B18" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="B19" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
+        <v>35</v>
+      </c>
+      <c r="B20" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
         <v>37</v>
       </c>
-      <c r="B20" t="s">
+      <c r="B21" t="s">
         <v>36</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>41</v>
+      </c>
+      <c r="B22" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>43</v>
+      </c>
+      <c r="B23" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>45</v>
+      </c>
+      <c r="B24" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>47</v>
+      </c>
+      <c r="B25" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>49</v>
+      </c>
+      <c r="B26" t="s">
+        <v>48</v>
       </c>
     </row>
   </sheetData>

--- a/items.xlsx
+++ b/items.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\eledah\Documents\GitHub\pmonitor\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{47FA8255-E69C-412B-B691-F83B7B1DA0C9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E9AD769-AA4A-4C9F-8043-1980D56CFB26}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="54">
   <si>
     <t>https://www.digikala.com/product/dkp-2462482/%D8%AE%DB%8C%D8%A7%D8%B1-%D8%B4%D9%88%D8%B1-%D8%B3%D8%A7%D9%84%DB%8C-15-%DA%A9%DB%8C%D9%84%D9%88%DA%AF%D8%B1%D9%85/</t>
   </si>
@@ -181,6 +181,12 @@
   </si>
   <si>
     <t>name</t>
+  </si>
+  <si>
+    <t>ماکارونی پنه زر ماکارون 500 گرم</t>
+  </si>
+  <si>
+    <t>https://www.digikala.com/product/dkp-633507/%D9%85%D8%A7%DA%A9%D8%A7%D8%B1%D9%88%D9%86%DB%8C-%D9%BE%D9%86%D9%87-%D8%B1%DB%8C%DA%AF%D8%A7%D8%AA%D9%87-%D8%B2%D8%B1-%D9%85%D8%A7%DA%A9%D8%A7%D8%B1%D9%88%D9%86-%D9%85%D9%82%D8%AF%D8%A7%D8%B1-500-%DA%AF%D8%B1%D9%85/</t>
   </si>
 </sst>
 </file>
@@ -499,10 +505,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B26"/>
+  <dimension ref="A1:B27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -719,6 +725,14 @@
         <v>48</v>
       </c>
     </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>53</v>
+      </c>
+      <c r="B27" t="s">
+        <v>52</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId1"/>

--- a/items.xlsx
+++ b/items.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\eledah\Documents\GitHub\pmonitor\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E9AD769-AA4A-4C9F-8043-1980D56CFB26}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8841ECE0-1ADE-4AAF-B218-CFFEDE44F2B5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="90">
   <si>
     <t>https://www.digikala.com/product/dkp-2462482/%D8%AE%DB%8C%D8%A7%D8%B1-%D8%B4%D9%88%D8%B1-%D8%B3%D8%A7%D9%84%DB%8C-15-%DA%A9%DB%8C%D9%84%D9%88%DA%AF%D8%B1%D9%85/</t>
   </si>
@@ -187,6 +187,114 @@
   </si>
   <si>
     <t>https://www.digikala.com/product/dkp-633507/%D9%85%D8%A7%DA%A9%D8%A7%D8%B1%D9%88%D9%86%DB%8C-%D9%BE%D9%86%D9%87-%D8%B1%DB%8C%DA%AF%D8%A7%D8%AA%D9%87-%D8%B2%D8%B1-%D9%85%D8%A7%DA%A9%D8%A7%D8%B1%D9%88%D9%86-%D9%85%D9%82%D8%AF%D8%A7%D8%B1-500-%DA%AF%D8%B1%D9%85/</t>
+  </si>
+  <si>
+    <t>https://www.digikala.com/product/dkp-7917881/%D9%85%D8%A7%D9%86%DB%8C%D8%AA%D9%88%D8%B1-%D8%AC%DB%8C-%D9%BE%D9%84%D8%A7%D8%B3-%D9%85%D8%AF%D9%84-gdm-245ln-%D8%B3%D8%A7%DB%8C%D8%B2-24-%D8%A7%DB%8C%D9%86%DA%86/</t>
+  </si>
+  <si>
+    <t>مانیتور جی پلاس 24 اینچ</t>
+  </si>
+  <si>
+    <t>https://www.digikala.com/product/dkp-4804773/%DA%A9%D9%BE%D8%B3%D9%88%D9%84-%D8%A2%D8%AA%D8%B4-%D9%86%D8%B4%D8%A7%D9%86%DB%8C-%D8%AF%D8%B1%DB%8C%D8%A7-%D9%85%D8%AF%D9%84-b-378-%D9%88%D8%B2%D9%86-3-%DA%A9%DB%8C%D9%84%D9%88-%DA%AF%D8%B1%D9%85/</t>
+  </si>
+  <si>
+    <t>کپسول آتش نشانی دریا 3 کیلوگرم</t>
+  </si>
+  <si>
+    <t>کره حیوانی پاستوریزه میهن - 100 گرم</t>
+  </si>
+  <si>
+    <t>https://www.digikala.com/product/dkp-939272/%DA%A9%D8%B1%D9%87-%D8%AD%DB%8C%D9%88%D8%A7%D9%86%DB%8C-%D9%BE%D8%A7%D8%B3%D8%AA%D9%88%D8%B1%DB%8C%D8%B2%D9%87-%D9%85%DB%8C%D9%87%D9%86-100-%DA%AF%D8%B1%D9%85/</t>
+  </si>
+  <si>
+    <t>https://www.digikala.com/product/dkp-3723719/%D9%85%D8%A8%D9%84-%D8%B1%D8%A7%D8%AD%D8%AA%DB%8C-7-%D9%86%D9%81%D8%B1%D9%87-%D9%85%D8%AF%D9%84-%D8%A2%D8%B1%D8%AA%D8%A7%D9%86-%DA%A9%D8%AF-015/</t>
+  </si>
+  <si>
+    <t>مبل راحتی 7 نفره مدل آرتان</t>
+  </si>
+  <si>
+    <t>https://www.digikala.com/product/dkp-4262387/%DA%A9%D9%81%D8%B4-%D9%BE%DB%8C%D8%A7%D8%AF%D9%87-%D8%B1%D9%88%DB%8C-%D9%85%D8%B1%D8%AF%D8%A7%D9%86%D9%87-%D9%85%D8%AF%D9%84-%D8%B1/</t>
+  </si>
+  <si>
+    <t>کفش پیاده روی مردانه</t>
+  </si>
+  <si>
+    <t>شومیز زنانه</t>
+  </si>
+  <si>
+    <t>https://www.digikala.com/product/dkp-5656154/%D8%B4%D9%88%D9%85%DB%8C%D8%B2-%D8%B2%D9%86%D8%A7%D9%86%D9%87-%D9%85%D8%AF%D9%84-rz-arsa82039-shora-se-%D8%B1%D9%86%DA%AF-%D8%B3%D9%81%DB%8C%D8%AF/</t>
+  </si>
+  <si>
+    <t>https://www.digikala.com/product/dkp-8472321/%D8%AC%D8%B9%D8%A8%D9%87-%D8%A7%D8%A8%D8%B2%D8%A7%D8%B1-%D9%85%D8%AF%D9%84-life-style-%D9%85%D8%AC%D9%85%D9%88%D8%B9%D9%87-100-%D8%B9%D8%AF%D8%AF%DB%8C/</t>
+  </si>
+  <si>
+    <t>جعبه ابزار 100 عددی</t>
+  </si>
+  <si>
+    <t>https://www.digikala.com/product/dkp-12278475/%D8%B3%D8%B1%D9%88%D9%8A%D8%B3-26-%D9%BE%D8%A7%D8%B1%DA%86%D9%87-%D8%A7%D9%BE%D8%A7%D9%84-%D9%85%D8%AF%D9%84-%D8%A2%D8%B1%D8%AA%D9%88%D8%B1/</t>
+  </si>
+  <si>
+    <t>سرویس 26 پارچه اپال</t>
+  </si>
+  <si>
+    <t>https://www.digikala.com/product/dkp-4714424/%D9%82%D8%B1%D8%B5-%D9%85%D8%A7%D8%B4%D9%8A%D9%86-%D8%B8%D8%B1%D9%81%D8%B4%D9%88%D9%8A%DB%8C-%D9%87%D9%88%D9%85-%D9%BE%D9%84%D8%A7%D8%B3-%D9%85%D8%AF%D9%84-lemon-%D8%A8%D8%B3%D8%AA%D9%87-48-%D8%B9%D8%AF%D8%AF%DB%8C/</t>
+  </si>
+  <si>
+    <t>قرص ماشین ظرفشویی هوم پلاس 48 عددی</t>
+  </si>
+  <si>
+    <t>https://www.digikala.com/product/dkp-14762/%D8%AA%D9%84%D9%81%D9%86-%D8%A8%DB%8C-%D8%B3%DB%8C%D9%85-%D9%BE%D8%A7%D9%86%D8%A7%D8%B3%D9%88%D9%86%DB%8C%DA%A9-%D9%85%D8%AF%D9%84-kx-tg3611bx/</t>
+  </si>
+  <si>
+    <t>تلفن بی‌سیم پاناسونیک</t>
+  </si>
+  <si>
+    <t>https://www.digikala.com/product/dkp-5604484/%D9%88%DB%8C%D8%AF%D8%A6%D9%88-%D9%BE%D8%B1%D9%88%DA%98%DA%A9%D8%AA%D9%88%D8%B1-%D9%88%D9%86%D8%A8%D9%88-%D9%85%D8%AF%D9%84-t2-max/</t>
+  </si>
+  <si>
+    <t>ویدئو پروژکتور T2 Max</t>
+  </si>
+  <si>
+    <t>https://www.digikala.com/product/dkp-753677/%D8%B3%D8%AA-%D9%84%D9%88%D8%A7%D8%B2%D9%85-%D8%AA%D8%AD%D8%B1%DB%8C%D8%B1-%DA%A9%D8%AF-10008-%D9%85%D8%AC%D9%85%D9%88%D8%B9%D9%87-21-%D8%B9%D8%AF%D8%AF%DB%8C/</t>
+  </si>
+  <si>
+    <t>ست لوازم تحریر 21 عددی</t>
+  </si>
+  <si>
+    <t>https://www.digikala.com/product/dkp-170831/%D8%AF%D9%88%D8%B1%D8%A8%DB%8C%D9%86-%D8%AF%DB%8C%D8%AC%DB%8C%D8%AA%D8%A7%D9%84-%DA%A9%D8%A7%D9%86%D9%86-%D9%85%D8%AF%D9%84-eos-5d-mark-iv/</t>
+  </si>
+  <si>
+    <t>دوربین دیجیتال کانن مدل EOS 5D Mark IV</t>
+  </si>
+  <si>
+    <t>https://www.digikala.com/product/dkp-3540612/%D8%BA%D8%B0%D8%A7%DB%8C-%D8%AE%D8%B4%DA%A9-%DA%AF%D8%B1%D8%A8%D9%87-%D9%85%D9%81%DB%8C%D8%AF-%D9%85%D8%AF%D9%84-adult1400-%D9%88%D8%B2%D9%86-2-%DA%A9%DB%8C%D9%84%D9%88%DA%AF%D8%B1%D9%85/</t>
+  </si>
+  <si>
+    <t>https://www.digikala.com/product/dkp-581175/%DA%86%D8%A7%DB%8C-%D8%B3%DB%8C%D8%A7%D9%87-%DA%AF%D9%84%D8%B3%D8%AA%D8%A7%D9%86-%D9%85%D8%AF%D9%84-%D9%85%D9%85%D8%AA%D8%A7%D8%B2-%D9%87%D9%86%D8%AF%D9%88%D8%B3%D8%AA%D8%A7%D9%86-500-%DA%AF%D8%B1%D9%85/</t>
+  </si>
+  <si>
+    <t>چای سیاه گلستان مدل ممتاز هندوستان - 500 گرم</t>
+  </si>
+  <si>
+    <t xml:space="preserve">آب معدنی میوا - 1.5 لیتر بسته 6 عددی </t>
+  </si>
+  <si>
+    <t>https://www.digikala.com/product/dkp-3439306/%D8%A2%D8%A8-%D9%85%D8%B9%D8%AF%D9%86%DB%8C-%D9%85%DB%8C%D9%88%D8%A7-15-%D9%84%DB%8C%D8%AA%D8%B1-%D8%A8%D8%B3%D8%AA%D9%87-6-%D8%B9%D8%AF%D8%AF%DB%8C/</t>
+  </si>
+  <si>
+    <t>https://www.digikala.com/product/dkp-1923615/%D9%86%D9%88%D8%B4%D8%A7%D8%A8%D9%87-%DA%A9%D9%88%D9%84%D8%A7-%D9%BE%D9%BE%D8%B3%DB%8C-15-%D9%84%DB%8C%D8%AA%D8%B1-%D8%A8%D8%B3%D8%AA%D9%87-6-%D8%B9%D8%AF%D8%AF%DB%8C/</t>
+  </si>
+  <si>
+    <t>نوشابه  پپسی - 1.5 لیتر بسته 6 عددی</t>
+  </si>
+  <si>
+    <t>تشک دو نفره رویا مدل اولترا 3</t>
+  </si>
+  <si>
+    <t>https://www.digikala.com/product/dkp-188227/%D8%AA%D8%B4%DA%A9-%D8%AF%D9%88-%D9%86%D9%81%D8%B1%D9%87-%D8%B1%D9%88%DB%8C%D8%A7-%D9%85%D8%AF%D9%84-%D8%A7%D9%88%D9%84%D8%AA%D8%B1%D8%A7-3-%D8%B3%D8%A7%DB%8C%D8%B2-160-200-%D8%B3%D8%A7%D9%86%D8%AA%DB%8C-%D9%85%D8%AA%D8%B1/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">غذای خشک گربه 2 کیلوگرم </t>
   </si>
 </sst>
 </file>
@@ -505,10 +613,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B27"/>
+  <dimension ref="A1:B45"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -527,82 +635,82 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>0</v>
+        <v>84</v>
       </c>
       <c r="B2" t="s">
-        <v>1</v>
+        <v>83</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>2</v>
+        <v>35</v>
       </c>
       <c r="B3" t="s">
-        <v>3</v>
+        <v>34</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B4" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>6</v>
+        <v>30</v>
       </c>
       <c r="B5" t="s">
-        <v>7</v>
+        <v>31</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" s="1" t="s">
+      <c r="A6" t="s">
+        <v>22</v>
+      </c>
+      <c r="B6" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B7" t="s">
         <v>38</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>8</v>
-      </c>
-      <c r="B7" t="s">
-        <v>9</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>11</v>
+        <v>26</v>
       </c>
       <c r="B8" t="s">
-        <v>10</v>
+        <v>27</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>12</v>
+        <v>45</v>
       </c>
       <c r="B9" t="s">
-        <v>13</v>
+        <v>44</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>14</v>
+        <v>88</v>
       </c>
       <c r="B10" t="s">
-        <v>15</v>
+        <v>87</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>16</v>
+        <v>72</v>
       </c>
       <c r="B11" t="s">
-        <v>17</v>
+        <v>73</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
@@ -615,125 +723,272 @@
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="B13" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>22</v>
+        <v>66</v>
       </c>
       <c r="B14" t="s">
-        <v>23</v>
+        <v>67</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>24</v>
+        <v>81</v>
       </c>
       <c r="B15" t="s">
-        <v>25</v>
+        <v>82</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>26</v>
+        <v>0</v>
       </c>
       <c r="B16" t="s">
-        <v>27</v>
+        <v>1</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>28</v>
+        <v>78</v>
       </c>
       <c r="B17" t="s">
-        <v>29</v>
+        <v>79</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>30</v>
+        <v>12</v>
       </c>
       <c r="B18" t="s">
-        <v>31</v>
+        <v>13</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>32</v>
+        <v>43</v>
       </c>
       <c r="B19" t="s">
-        <v>33</v>
+        <v>42</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>35</v>
+        <v>5</v>
       </c>
       <c r="B20" t="s">
-        <v>34</v>
+        <v>4</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>37</v>
+        <v>76</v>
       </c>
       <c r="B21" t="s">
-        <v>36</v>
+        <v>77</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>41</v>
+        <v>68</v>
       </c>
       <c r="B22" t="s">
-        <v>40</v>
+        <v>69</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="B23" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>45</v>
+        <v>65</v>
       </c>
       <c r="B24" t="s">
-        <v>44</v>
+        <v>64</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>47</v>
+        <v>32</v>
       </c>
       <c r="B25" t="s">
-        <v>46</v>
+        <v>33</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>49</v>
+        <v>80</v>
       </c>
       <c r="B26" t="s">
-        <v>48</v>
+        <v>89</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
+        <v>37</v>
+      </c>
+      <c r="B27" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>70</v>
+      </c>
+      <c r="B28" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>56</v>
+      </c>
+      <c r="B29" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>8</v>
+      </c>
+      <c r="B30" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>59</v>
+      </c>
+      <c r="B31" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>62</v>
+      </c>
+      <c r="B32" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>41</v>
+      </c>
+      <c r="B33" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>16</v>
+      </c>
+      <c r="B34" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>24</v>
+      </c>
+      <c r="B35" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>11</v>
+      </c>
+      <c r="B36" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>20</v>
+      </c>
+      <c r="B37" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
         <v>53</v>
       </c>
-      <c r="B27" t="s">
+      <c r="B38" t="s">
         <v>52</v>
       </c>
     </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>54</v>
+      </c>
+      <c r="B39" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>60</v>
+      </c>
+      <c r="B40" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>28</v>
+      </c>
+      <c r="B41" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>85</v>
+      </c>
+      <c r="B42" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>49</v>
+      </c>
+      <c r="B43" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>2</v>
+      </c>
+      <c r="B44" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>74</v>
+      </c>
+      <c r="B45" t="s">
+        <v>75</v>
+      </c>
+    </row>
   </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A1:B45">
+    <sortCondition ref="B2:B45"/>
+  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId1"/>
 </worksheet>

--- a/items.xlsx
+++ b/items.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24332"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26731"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\eledah\Documents\GitHub\pmonitor\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8841ECE0-1ADE-4AAF-B218-CFFEDE44F2B5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{82419E78-D7D3-4D11-8226-249842BED4B4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12780" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="98">
   <si>
     <t>https://www.digikala.com/product/dkp-2462482/%D8%AE%DB%8C%D8%A7%D8%B1-%D8%B4%D9%88%D8%B1-%D8%B3%D8%A7%D9%84%DB%8C-15-%DA%A9%DB%8C%D9%84%D9%88%DA%AF%D8%B1%D9%85/</t>
   </si>
@@ -295,6 +295,30 @@
   </si>
   <si>
     <t xml:space="preserve">غذای خشک گربه 2 کیلوگرم </t>
+  </si>
+  <si>
+    <t>https://www.digikala.com/product/dkp-7608527/%D8%A7%D8%AF%D9%88-%D9%BE%D8%B1%D9%81%DB%8C%D9%88%D9%85-%D9%85%D8%B1%D8%AF%D8%A7%D9%86%D9%87-%D9%86%DB%8C%D9%81%D8%AA%DB%8C-%D9%85%D8%AF%D9%84-%D8%B3%D8%A7%D9%88%D8%A7%D8%AC-%D8%AF%DB%8C%D9%88%D8%B1-%D8%AD%D8%AC%D9%85-100-%D9%85%DB%8C%D9%84%DB%8C-%D9%84%DB%8C%D8%AA%D8%B1/</t>
+  </si>
+  <si>
+    <t>عطر مردانه ساواج دیور 100 میلی لیتر</t>
+  </si>
+  <si>
+    <t>https://www.digikala.com/product/dkp-10763766/%D9%84%D9%BE-%D8%AA%D8%A7%D9%BE-156-%D8%A7%DB%8C%D9%86%DA%86%DB%8C-%D8%A7%DA%86%D9%BE%DB%8C-%D9%85%D8%AF%D9%84-pavilion-x360-15t-er100-i5-8gb-1tb-iris-xe/</t>
+  </si>
+  <si>
+    <t>لپ تاپ 15.6 اینچی اچ‌پی Pavilion x360</t>
+  </si>
+  <si>
+    <t>https://www.digikala.com/product/dkp-1553412/%D8%B1%D8%A7%D8%B3%D8%AA%D9%87-%DA%AF%D9%88%D8%B3%D9%81%D9%86%D8%AF-%D9%85%D9%87%D8%AA%D8%A7-%D9%BE%D8%B1%D9%88%D8%AA%D8%A6%DB%8C%D9%86-1-%DA%A9%DB%8C%D9%84%D9%88%DA%AF%D8%B1%D9%85-%D8%A8%D8%A7-%D8%A7%D8%B1%D8%B2-%D9%86%DB%8C%D9%85%D8%A7%DB%8C%DB%8C/</t>
+  </si>
+  <si>
+    <t>راسته گوسفند مهتا پروتئین - 1 کیلوگرم - با ارز نیمایی</t>
+  </si>
+  <si>
+    <t>فیله ماهی حسون جنوب پمینا - 700 گرم</t>
+  </si>
+  <si>
+    <t>https://www.digikala.com/product/dkp-4588938/%D9%81%DB%8C%D9%84%D9%87-%D9%85%D8%A7%D9%87%DB%8C-%D8%AD%D8%B3%D9%88%D9%86-%D8%AC%D9%86%D9%88%D8%A8-%D9%BE%D9%85%DB%8C%D9%86%D8%A7-700-%DA%AF%D8%B1%D9%85/</t>
   </si>
 </sst>
 </file>
@@ -330,15 +354,82 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -355,10 +446,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr val="windowText" lastClr="000000"/>
+        <a:sysClr val="windowText" lastClr="464646"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr val="window" lastClr="FCFCFC"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="44546A"/>
@@ -613,19 +704,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B45"/>
+  <dimension ref="A1:B49"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="18.5703125" customWidth="1"/>
-    <col min="2" max="2" width="39.85546875" customWidth="1"/>
+    <col min="1" max="1" width="18.5546875" customWidth="1"/>
+    <col min="2" max="2" width="39.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>50</v>
       </c>
@@ -633,7 +724,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>84</v>
       </c>
@@ -641,7 +732,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>35</v>
       </c>
@@ -649,7 +740,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>6</v>
       </c>
@@ -657,7 +748,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>30</v>
       </c>
@@ -665,7 +756,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>22</v>
       </c>
@@ -673,15 +764,15 @@
         <v>23</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" s="1" t="s">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
         <v>39</v>
       </c>
       <c r="B7" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>26</v>
       </c>
@@ -689,7 +780,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>45</v>
       </c>
@@ -697,7 +788,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>88</v>
       </c>
@@ -705,7 +796,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>72</v>
       </c>
@@ -713,7 +804,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>18</v>
       </c>
@@ -721,7 +812,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>14</v>
       </c>
@@ -729,7 +820,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>66</v>
       </c>
@@ -737,7 +828,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>81</v>
       </c>
@@ -745,7 +836,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>0</v>
       </c>
@@ -753,7 +844,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>78</v>
       </c>
@@ -761,233 +852,265 @@
         <v>79</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
+        <v>94</v>
+      </c>
+      <c r="B18" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
         <v>12</v>
       </c>
-      <c r="B18" t="s">
+      <c r="B19" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
         <v>43</v>
       </c>
-      <c r="B19" t="s">
+      <c r="B20" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
         <v>5</v>
       </c>
-      <c r="B20" t="s">
+      <c r="B21" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
         <v>76</v>
       </c>
-      <c r="B21" t="s">
+      <c r="B22" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
         <v>68</v>
       </c>
-      <c r="B22" t="s">
+      <c r="B23" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
         <v>47</v>
       </c>
-      <c r="B23" t="s">
+      <c r="B24" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
         <v>65</v>
       </c>
-      <c r="B24" t="s">
+      <c r="B25" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
         <v>32</v>
       </c>
-      <c r="B25" t="s">
+      <c r="B26" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
+        <v>90</v>
+      </c>
+      <c r="B27" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
         <v>80</v>
       </c>
-      <c r="B26" t="s">
+      <c r="B28" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
         <v>37</v>
       </c>
-      <c r="B27" t="s">
+      <c r="B29" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A30" t="s">
+        <v>97</v>
+      </c>
+      <c r="B30" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A31" t="s">
         <v>70</v>
       </c>
-      <c r="B28" t="s">
+      <c r="B31" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A29" t="s">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A32" t="s">
         <v>56</v>
       </c>
-      <c r="B29" t="s">
+      <c r="B32" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A30" t="s">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A33" t="s">
         <v>8</v>
       </c>
-      <c r="B30" t="s">
+      <c r="B33" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A31" t="s">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A34" t="s">
         <v>59</v>
       </c>
-      <c r="B31" t="s">
+      <c r="B34" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A32" t="s">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A35" t="s">
         <v>62</v>
       </c>
-      <c r="B32" t="s">
+      <c r="B35" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A33" t="s">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A36" t="s">
         <v>41</v>
       </c>
-      <c r="B33" t="s">
+      <c r="B36" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A34" t="s">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A37" t="s">
         <v>16</v>
       </c>
-      <c r="B34" t="s">
+      <c r="B37" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A35" t="s">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A38" t="s">
         <v>24</v>
       </c>
-      <c r="B35" t="s">
+      <c r="B38" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A36" t="s">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A39" t="s">
         <v>11</v>
       </c>
-      <c r="B36" t="s">
+      <c r="B39" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A37" t="s">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A40" t="s">
+        <v>92</v>
+      </c>
+      <c r="B40" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A41" t="s">
         <v>20</v>
       </c>
-      <c r="B37" t="s">
+      <c r="B41" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A38" t="s">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A42" t="s">
         <v>53</v>
       </c>
-      <c r="B38" t="s">
+      <c r="B42" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A39" t="s">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A43" t="s">
         <v>54</v>
       </c>
-      <c r="B39" t="s">
+      <c r="B43" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A40" t="s">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A44" t="s">
         <v>60</v>
       </c>
-      <c r="B40" t="s">
+      <c r="B44" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A41" t="s">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A45" t="s">
         <v>28</v>
       </c>
-      <c r="B41" t="s">
+      <c r="B45" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A42" t="s">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A46" t="s">
         <v>85</v>
       </c>
-      <c r="B42" t="s">
+      <c r="B46" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A43" t="s">
+    <row r="47" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A47" t="s">
         <v>49</v>
       </c>
-      <c r="B43" t="s">
+      <c r="B47" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A44" t="s">
+    <row r="48" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A48" t="s">
         <v>2</v>
       </c>
-      <c r="B44" t="s">
+      <c r="B48" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A45" t="s">
+    <row r="49" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A49" t="s">
         <v>74</v>
       </c>
-      <c r="B45" t="s">
+      <c r="B49" t="s">
         <v>75</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A1:B45">
-    <sortCondition ref="B2:B45"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A3:B49">
+    <sortCondition ref="B2:B49"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId1"/>

--- a/items.xlsx
+++ b/items.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26731"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24332"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\eledah\Documents\GitHub\pmonitor\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{82419E78-D7D3-4D11-8226-249842BED4B4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A6A0681-92AF-4E23-96EA-6281B0A02F03}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12780" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="98">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="102">
   <si>
     <t>https://www.digikala.com/product/dkp-2462482/%D8%AE%DB%8C%D8%A7%D8%B1-%D8%B4%D9%88%D8%B1-%D8%B3%D8%A7%D9%84%DB%8C-15-%DA%A9%DB%8C%D9%84%D9%88%DA%AF%D8%B1%D9%85/</t>
   </si>
@@ -319,6 +319,18 @@
   </si>
   <si>
     <t>https://www.digikala.com/product/dkp-4588938/%D9%81%DB%8C%D9%84%D9%87-%D9%85%D8%A7%D9%87%DB%8C-%D8%AD%D8%B3%D9%88%D9%86-%D8%AC%D9%86%D9%88%D8%A8-%D9%BE%D9%85%DB%8C%D9%86%D8%A7-700-%DA%AF%D8%B1%D9%85/</t>
+  </si>
+  <si>
+    <t>https://www.digikala.com/product/dkp-757476/%D8%B3%DB%8C%D8%A8-%D8%B2%D9%85%DB%8C%D9%86%DB%8C-%D8%B7%D9%84%D8%A7%DB%8C%DB%8C-%D9%85%D9%86%D8%AC%D9%85%D8%AF-%D8%B3%D8%B1%D8%AF-%D9%88-%D8%AA%D8%A7%D8%B2%D9%87-%D9%85%D9%82%D8%AF%D8%A7%D8%B1-750-%DA%AF%D8%B1%D9%85/</t>
+  </si>
+  <si>
+    <t>https://www.digikala.com/product/dkp-1023378/%D9%BE%D9%86%DB%8C%D8%B1-%D9%BE%DB%8C%D8%AA%D8%B2%D8%A7-%D8%AA%D8%A7%D9%BE%DB%8C%D9%86%DA%AF-%D8%A8%D8%A7-%D8%B7%D8%B9%D9%85-%D9%85%D9%88%D8%B2%D8%A7%D8%B1%D9%84%D8%A7-%D9%88-%DA%86%D8%AF%D8%A7%D8%B1-%D8%B1%D9%86%D8%AF%D9%87-%D8%B4%D8%AF%D9%87-%DA%A9%D8%A7%D9%84%DB%8C%D9%86-1000-%DA%AF%D8%B1%D9%85/</t>
+  </si>
+  <si>
+    <t>پنیر پیتزا رنده شده کالین - 1000 گرم</t>
+  </si>
+  <si>
+    <t>سیب زمینی طلایی منجمد - 750 گرم</t>
   </si>
 </sst>
 </file>
@@ -362,74 +374,6 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -446,10 +390,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr val="windowText" lastClr="464646"/>
+        <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FCFCFC"/>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="44546A"/>
@@ -704,19 +648,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B49"/>
+  <dimension ref="A1:B51"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="18.5546875" customWidth="1"/>
-    <col min="2" max="2" width="39.88671875" customWidth="1"/>
+    <col min="1" max="1" width="18.5703125" customWidth="1"/>
+    <col min="2" max="2" width="39.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>50</v>
       </c>
@@ -724,7 +668,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>84</v>
       </c>
@@ -732,7 +676,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>35</v>
       </c>
@@ -740,7 +684,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>6</v>
       </c>
@@ -748,7 +692,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>30</v>
       </c>
@@ -756,7 +700,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>22</v>
       </c>
@@ -764,353 +708,369 @@
         <v>23</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
+        <v>99</v>
+      </c>
+      <c r="B7" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
         <v>39</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B8" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
         <v>26</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B9" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
         <v>45</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B10" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A10" t="s">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
         <v>88</v>
       </c>
-      <c r="B10" t="s">
+      <c r="B11" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A11" t="s">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
         <v>72</v>
       </c>
-      <c r="B11" t="s">
+      <c r="B12" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A12" t="s">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
         <v>18</v>
       </c>
-      <c r="B12" t="s">
+      <c r="B13" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A13" t="s">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
         <v>14</v>
       </c>
-      <c r="B13" t="s">
+      <c r="B14" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A14" t="s">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
         <v>66</v>
       </c>
-      <c r="B14" t="s">
+      <c r="B15" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A15" t="s">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
         <v>81</v>
       </c>
-      <c r="B15" t="s">
+      <c r="B16" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A16" t="s">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
         <v>0</v>
       </c>
-      <c r="B16" t="s">
+      <c r="B17" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A17" t="s">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
         <v>78</v>
       </c>
-      <c r="B17" t="s">
+      <c r="B18" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A18" t="s">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
         <v>94</v>
       </c>
-      <c r="B18" t="s">
+      <c r="B19" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A19" t="s">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
         <v>12</v>
       </c>
-      <c r="B19" t="s">
+      <c r="B20" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A20" t="s">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
         <v>43</v>
       </c>
-      <c r="B20" t="s">
+      <c r="B21" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A21" t="s">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
         <v>5</v>
       </c>
-      <c r="B21" t="s">
+      <c r="B22" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
         <v>76</v>
       </c>
-      <c r="B22" t="s">
+      <c r="B23" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A23" t="s">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
         <v>68</v>
       </c>
-      <c r="B23" t="s">
+      <c r="B24" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A24" t="s">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>98</v>
+      </c>
+      <c r="B25" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
         <v>47</v>
       </c>
-      <c r="B24" t="s">
+      <c r="B26" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A25" t="s">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
         <v>65</v>
       </c>
-      <c r="B25" t="s">
+      <c r="B27" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A26" t="s">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
         <v>32</v>
       </c>
-      <c r="B26" t="s">
+      <c r="B28" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A27" t="s">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
         <v>90</v>
       </c>
-      <c r="B27" t="s">
+      <c r="B29" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A28" t="s">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
         <v>80</v>
       </c>
-      <c r="B28" t="s">
+      <c r="B30" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A29" t="s">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
         <v>37</v>
       </c>
-      <c r="B29" t="s">
+      <c r="B31" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A30" t="s">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
         <v>97</v>
       </c>
-      <c r="B30" t="s">
+      <c r="B32" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A31" t="s">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
         <v>70</v>
       </c>
-      <c r="B31" t="s">
+      <c r="B33" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A32" t="s">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
         <v>56</v>
       </c>
-      <c r="B32" t="s">
+      <c r="B34" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A33" t="s">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
         <v>8</v>
       </c>
-      <c r="B33" t="s">
+      <c r="B35" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A34" t="s">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
         <v>59</v>
       </c>
-      <c r="B34" t="s">
+      <c r="B36" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A35" t="s">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
         <v>62</v>
       </c>
-      <c r="B35" t="s">
+      <c r="B37" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A36" t="s">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
         <v>41</v>
       </c>
-      <c r="B36" t="s">
+      <c r="B38" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A37" t="s">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
         <v>16</v>
       </c>
-      <c r="B37" t="s">
+      <c r="B39" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A38" t="s">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
         <v>24</v>
       </c>
-      <c r="B38" t="s">
+      <c r="B40" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A39" t="s">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
         <v>11</v>
       </c>
-      <c r="B39" t="s">
+      <c r="B41" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A40" t="s">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
         <v>92</v>
       </c>
-      <c r="B40" t="s">
+      <c r="B42" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A41" t="s">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
         <v>20</v>
       </c>
-      <c r="B41" t="s">
+      <c r="B43" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A42" t="s">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
         <v>53</v>
       </c>
-      <c r="B42" t="s">
+      <c r="B44" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A43" t="s">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
         <v>54</v>
       </c>
-      <c r="B43" t="s">
+      <c r="B45" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A44" t="s">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
         <v>60</v>
       </c>
-      <c r="B44" t="s">
+      <c r="B46" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A45" t="s">
+    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
         <v>28</v>
       </c>
-      <c r="B45" t="s">
+      <c r="B47" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A46" t="s">
+    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
         <v>85</v>
       </c>
-      <c r="B46" t="s">
+      <c r="B48" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A47" t="s">
+    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
         <v>49</v>
       </c>
-      <c r="B47" t="s">
+      <c r="B49" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A48" t="s">
+    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
         <v>2</v>
       </c>
-      <c r="B48" t="s">
+      <c r="B50" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A49" t="s">
+    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
         <v>74</v>
       </c>
-      <c r="B49" t="s">
+      <c r="B51" t="s">
         <v>75</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A3:B49">
-    <sortCondition ref="B2:B49"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A3:B51">
+    <sortCondition ref="B1:B51"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId1"/>

--- a/items.xlsx
+++ b/items.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\eledah\Documents\GitHub\pmonitor\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A6A0681-92AF-4E23-96EA-6281B0A02F03}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C0A3E36D-58E4-41CA-AB29-465ED01C330A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="102">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="104">
   <si>
     <t>https://www.digikala.com/product/dkp-2462482/%D8%AE%DB%8C%D8%A7%D8%B1-%D8%B4%D9%88%D8%B1-%D8%B3%D8%A7%D9%84%DB%8C-15-%DA%A9%DB%8C%D9%84%D9%88%DA%AF%D8%B1%D9%85/</t>
   </si>
@@ -331,6 +331,12 @@
   </si>
   <si>
     <t>سیب زمینی طلایی منجمد - 750 گرم</t>
+  </si>
+  <si>
+    <t>https://www.digikala.com/product/dkp-1787072/%D8%AA%D8%B1%D8%A7%D8%B2%D9%88-%D8%AF%DB%8C%D8%AC%DB%8C%D8%AA%D8%A7%D9%84-%DA%A9%D9%85%D8%B1%DB%8C-%D9%81%DB%8C%D8%AA-%D9%85%D8%AF%D9%84-ps-2019-%D8%B7%D8%B1%D8%AD-b-wave/</t>
+  </si>
+  <si>
+    <t>ترازو دیجیتال کمری فیت</t>
   </si>
 </sst>
 </file>
@@ -648,10 +654,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B51"/>
+  <dimension ref="A1:B52"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="H32" sqref="H32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -742,335 +748,343 @@
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>88</v>
+        <v>102</v>
       </c>
       <c r="B11" t="s">
-        <v>87</v>
+        <v>103</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>72</v>
+        <v>88</v>
       </c>
       <c r="B12" t="s">
-        <v>73</v>
+        <v>87</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>18</v>
+        <v>72</v>
       </c>
       <c r="B13" t="s">
-        <v>19</v>
+        <v>73</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="B14" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>66</v>
+        <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>67</v>
+        <v>15</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>81</v>
+        <v>66</v>
       </c>
       <c r="B16" t="s">
-        <v>82</v>
+        <v>67</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>0</v>
+        <v>81</v>
       </c>
       <c r="B17" t="s">
-        <v>1</v>
+        <v>82</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>78</v>
+        <v>0</v>
       </c>
       <c r="B18" t="s">
-        <v>79</v>
+        <v>1</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>94</v>
+        <v>78</v>
       </c>
       <c r="B19" t="s">
-        <v>95</v>
+        <v>79</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>12</v>
+        <v>94</v>
       </c>
       <c r="B20" t="s">
-        <v>13</v>
+        <v>95</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>43</v>
+        <v>12</v>
       </c>
       <c r="B21" t="s">
-        <v>42</v>
+        <v>13</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>5</v>
+        <v>43</v>
       </c>
       <c r="B22" t="s">
-        <v>4</v>
+        <v>42</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>76</v>
+        <v>5</v>
       </c>
       <c r="B23" t="s">
-        <v>77</v>
+        <v>4</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>68</v>
+        <v>76</v>
       </c>
       <c r="B24" t="s">
-        <v>69</v>
+        <v>77</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>98</v>
+        <v>68</v>
       </c>
       <c r="B25" t="s">
-        <v>101</v>
+        <v>69</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>47</v>
+        <v>98</v>
       </c>
       <c r="B26" t="s">
-        <v>46</v>
+        <v>101</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>65</v>
+        <v>47</v>
       </c>
       <c r="B27" t="s">
-        <v>64</v>
+        <v>46</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>32</v>
+        <v>65</v>
       </c>
       <c r="B28" t="s">
-        <v>33</v>
+        <v>64</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>90</v>
+        <v>32</v>
       </c>
       <c r="B29" t="s">
-        <v>91</v>
+        <v>33</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="B30" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>37</v>
+        <v>80</v>
       </c>
       <c r="B31" t="s">
-        <v>36</v>
+        <v>89</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>97</v>
+        <v>37</v>
       </c>
       <c r="B32" t="s">
-        <v>96</v>
+        <v>36</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>70</v>
+        <v>97</v>
       </c>
       <c r="B33" t="s">
-        <v>71</v>
+        <v>96</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>56</v>
+        <v>70</v>
       </c>
       <c r="B34" t="s">
-        <v>57</v>
+        <v>71</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>8</v>
+        <v>56</v>
       </c>
       <c r="B35" t="s">
-        <v>9</v>
+        <v>57</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>59</v>
+        <v>8</v>
       </c>
       <c r="B36" t="s">
-        <v>58</v>
+        <v>9</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="B37" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>41</v>
+        <v>62</v>
       </c>
       <c r="B38" t="s">
-        <v>40</v>
+        <v>63</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>16</v>
+        <v>41</v>
       </c>
       <c r="B39" t="s">
-        <v>17</v>
+        <v>40</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="B40" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>11</v>
+        <v>24</v>
       </c>
       <c r="B41" t="s">
-        <v>10</v>
+        <v>25</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>92</v>
+        <v>11</v>
       </c>
       <c r="B42" t="s">
-        <v>93</v>
+        <v>10</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>20</v>
+        <v>92</v>
       </c>
       <c r="B43" t="s">
-        <v>21</v>
+        <v>93</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>53</v>
+        <v>20</v>
       </c>
       <c r="B44" t="s">
-        <v>52</v>
+        <v>21</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B45" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="B46" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>28</v>
+        <v>60</v>
       </c>
       <c r="B47" t="s">
-        <v>29</v>
+        <v>61</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>85</v>
+        <v>28</v>
       </c>
       <c r="B48" t="s">
-        <v>86</v>
+        <v>29</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>49</v>
+        <v>85</v>
       </c>
       <c r="B49" t="s">
-        <v>48</v>
+        <v>86</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>2</v>
+        <v>49</v>
       </c>
       <c r="B50" t="s">
-        <v>3</v>
+        <v>48</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
+        <v>2</v>
+      </c>
+      <c r="B51" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
         <v>74</v>
       </c>
-      <c r="B51" t="s">
+      <c r="B52" t="s">
         <v>75</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A3:B51">
-    <sortCondition ref="B1:B51"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A3:B52">
+    <sortCondition ref="B3:B52"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId1"/>

--- a/items.xlsx
+++ b/items.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\eledah\Documents\GitHub\pmonitor\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C0A3E36D-58E4-41CA-AB29-465ED01C330A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B90FFE8-5DFE-4C25-96DC-A875B6176006}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="106">
   <si>
     <t>https://www.digikala.com/product/dkp-2462482/%D8%AE%DB%8C%D8%A7%D8%B1-%D8%B4%D9%88%D8%B1-%D8%B3%D8%A7%D9%84%DB%8C-15-%DA%A9%DB%8C%D9%84%D9%88%DA%AF%D8%B1%D9%85/</t>
   </si>
@@ -337,6 +337,12 @@
   </si>
   <si>
     <t>ترازو دیجیتال کمری فیت</t>
+  </si>
+  <si>
+    <t>کامپیوتر همه کاره 23.8 اینچ MSI</t>
+  </si>
+  <si>
+    <t>https://www.digikala.com/product/dkp-10762296/%DA%A9%D8%A7%D9%85%D9%BE%DB%8C%D9%88%D8%AA%D8%B1-%D9%87%D9%85%D9%87-%DA%A9%D8%A7%D8%B1%D9%87-238-%D8%A7%DB%8C%D9%86%DA%86-%D8%A7%D9%85-%D8%A7%D8%B3-%D8%A2%DB%8C-%D9%85%D8%AF%D9%84-am242p-12m-i5-16gb-500gb-iris-xe/</t>
   </si>
 </sst>
 </file>
@@ -654,10 +660,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B52"/>
+  <dimension ref="A1:B53"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="H32" sqref="H32"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -940,151 +946,159 @@
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>56</v>
+        <v>105</v>
       </c>
       <c r="B35" t="s">
-        <v>57</v>
+        <v>104</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>8</v>
+        <v>56</v>
       </c>
       <c r="B36" t="s">
-        <v>9</v>
+        <v>57</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>59</v>
+        <v>8</v>
       </c>
       <c r="B37" t="s">
-        <v>58</v>
+        <v>9</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="B38" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>41</v>
+        <v>62</v>
       </c>
       <c r="B39" t="s">
-        <v>40</v>
+        <v>63</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>16</v>
+        <v>41</v>
       </c>
       <c r="B40" t="s">
-        <v>17</v>
+        <v>40</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="B41" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>11</v>
+        <v>24</v>
       </c>
       <c r="B42" t="s">
-        <v>10</v>
+        <v>25</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>92</v>
+        <v>11</v>
       </c>
       <c r="B43" t="s">
-        <v>93</v>
+        <v>10</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>20</v>
+        <v>92</v>
       </c>
       <c r="B44" t="s">
-        <v>21</v>
+        <v>93</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>53</v>
+        <v>20</v>
       </c>
       <c r="B45" t="s">
-        <v>52</v>
+        <v>21</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B46" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="B47" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>28</v>
+        <v>60</v>
       </c>
       <c r="B48" t="s">
-        <v>29</v>
+        <v>61</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>85</v>
+        <v>28</v>
       </c>
       <c r="B49" t="s">
-        <v>86</v>
+        <v>29</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>49</v>
+        <v>85</v>
       </c>
       <c r="B50" t="s">
-        <v>48</v>
+        <v>86</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>2</v>
+        <v>49</v>
       </c>
       <c r="B51" t="s">
-        <v>3</v>
+        <v>48</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
+        <v>2</v>
+      </c>
+      <c r="B52" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
         <v>74</v>
       </c>
-      <c r="B52" t="s">
+      <c r="B53" t="s">
         <v>75</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A3:B52">
-    <sortCondition ref="B3:B52"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A3:B53">
+    <sortCondition ref="B1:B53"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId1"/>

--- a/items.xlsx
+++ b/items.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\eledah\Documents\GitHub\pmonitor\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B90FFE8-5DFE-4C25-96DC-A875B6176006}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6BBF3DD3-4B2C-4D47-B4BB-0C03AE5CB5B3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="114">
   <si>
     <t>https://www.digikala.com/product/dkp-2462482/%D8%AE%DB%8C%D8%A7%D8%B1-%D8%B4%D9%88%D8%B1-%D8%B3%D8%A7%D9%84%DB%8C-15-%DA%A9%DB%8C%D9%84%D9%88%DA%AF%D8%B1%D9%85/</t>
   </si>
@@ -343,6 +343,30 @@
   </si>
   <si>
     <t>https://www.digikala.com/product/dkp-10762296/%DA%A9%D8%A7%D9%85%D9%BE%DB%8C%D9%88%D8%AA%D8%B1-%D9%87%D9%85%D9%87-%DA%A9%D8%A7%D8%B1%D9%87-238-%D8%A7%DB%8C%D9%86%DA%86-%D8%A7%D9%85-%D8%A7%D8%B3-%D8%A2%DB%8C-%D9%85%D8%AF%D9%84-am242p-12m-i5-16gb-500gb-iris-xe/</t>
+  </si>
+  <si>
+    <t>ژل شستشوی صورت لافارر</t>
+  </si>
+  <si>
+    <t>بخاری برقی پارس خزر</t>
+  </si>
+  <si>
+    <t>https://www.digikala.com/product/dkp-3986553/%D8%A8%D8%AE%D8%A7%D8%B1%DB%8C-%D8%A8%D8%B1%D9%82%DB%8C-%D9%BE%D8%A7%D8%B1%D8%B3-%D8%AE%D8%B2%D8%B1-%D9%85%D8%AF%D9%84-sh2000e/</t>
+  </si>
+  <si>
+    <t>https://www.digikala.com/product/dkp-515367/%DA%98%D9%84-%D8%B4%D8%B3%D8%AA%D8%B4%D9%88-%D9%88-%D9%84%D8%A7%DB%8C%D9%87-%D8%A8%D8%B1%D8%AF%D8%A7%D8%B1-%D8%B5%D9%88%D8%B1%D8%AA-%D9%84%D8%A7%D9%81%D8%A7%D8%B1%D8%B1-%D9%85%D8%AF%D9%84-01-%D9%85%D9%86%D8%A7%D8%B3%D8%A8-%D9%BE%D9%88%D8%B3%D8%AA-%D9%87%D8%A7%DB%8C-%DA%86%D8%B1%D8%A8-%D8%AD%D8%AC%D9%85-150-%D9%85%DB%8C%D9%84%DB%8C-%D9%84%DB%8C%D8%AA%D8%B1/</t>
+  </si>
+  <si>
+    <t>https://www.digikala.com/product/dkp-3765912/%D9%BE%D9%88%D8%B4%DA%A9-%DA%A9%D9%88%D8%AF%DA%A9-%D9%85%D9%88%D9%84%D9%81%DB%8C%DA%A9%D8%B3-%D8%B3%D8%A7%DB%8C%D8%B2-4-%D8%A8%D8%B3%D8%AA%D9%87-34-%D8%B9%D8%AF%D8%AF%DB%8C/</t>
+  </si>
+  <si>
+    <t>پوشک مولفیکس سایز ۴</t>
+  </si>
+  <si>
+    <t>https://www.digikala.com/product/dkp-13259064/%D9%86%DB%8C%D9%85-%D8%A8%D9%88%D8%AA-%D8%B2%D9%86%D8%A7%D9%86%D9%87-%DA%86%D8%B1%D9%85-%D9%85%D8%B4%D9%87%D8%AF-%D9%85%D8%AF%D9%84-j2503-001/</t>
+  </si>
+  <si>
+    <t>نیم‌بوت زنانه چرم مشهد</t>
   </si>
 </sst>
 </file>
@@ -660,10 +684,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B53"/>
+  <dimension ref="A1:B57"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -714,391 +738,423 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>22</v>
+        <v>108</v>
       </c>
       <c r="B6" t="s">
-        <v>23</v>
+        <v>107</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>99</v>
+        <v>22</v>
       </c>
       <c r="B7" t="s">
-        <v>100</v>
+        <v>23</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>39</v>
+        <v>99</v>
       </c>
       <c r="B8" t="s">
-        <v>38</v>
+        <v>100</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>26</v>
+        <v>39</v>
       </c>
       <c r="B9" t="s">
-        <v>27</v>
+        <v>38</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>45</v>
+        <v>26</v>
       </c>
       <c r="B10" t="s">
-        <v>44</v>
+        <v>27</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>102</v>
+        <v>110</v>
       </c>
       <c r="B11" t="s">
-        <v>103</v>
+        <v>111</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>88</v>
+        <v>45</v>
       </c>
       <c r="B12" t="s">
-        <v>87</v>
+        <v>44</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>72</v>
+        <v>102</v>
       </c>
       <c r="B13" t="s">
-        <v>73</v>
+        <v>103</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>18</v>
+        <v>88</v>
       </c>
       <c r="B14" t="s">
-        <v>19</v>
+        <v>87</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>14</v>
+        <v>72</v>
       </c>
       <c r="B15" t="s">
-        <v>15</v>
+        <v>73</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>66</v>
+        <v>18</v>
       </c>
       <c r="B16" t="s">
-        <v>67</v>
+        <v>19</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>81</v>
+        <v>14</v>
       </c>
       <c r="B17" t="s">
-        <v>82</v>
+        <v>15</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>0</v>
+        <v>66</v>
       </c>
       <c r="B18" t="s">
-        <v>1</v>
+        <v>67</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="B19" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>94</v>
+        <v>0</v>
       </c>
       <c r="B20" t="s">
-        <v>95</v>
+        <v>1</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>12</v>
+        <v>78</v>
       </c>
       <c r="B21" t="s">
-        <v>13</v>
+        <v>79</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>43</v>
+        <v>94</v>
       </c>
       <c r="B22" t="s">
-        <v>42</v>
+        <v>95</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="B23" t="s">
-        <v>4</v>
+        <v>13</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>76</v>
+        <v>43</v>
       </c>
       <c r="B24" t="s">
-        <v>77</v>
+        <v>42</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>68</v>
+        <v>5</v>
       </c>
       <c r="B25" t="s">
-        <v>69</v>
+        <v>4</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>98</v>
+        <v>109</v>
       </c>
       <c r="B26" t="s">
-        <v>101</v>
+        <v>106</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>47</v>
+        <v>76</v>
       </c>
       <c r="B27" t="s">
-        <v>46</v>
+        <v>77</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="B28" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>32</v>
+        <v>98</v>
       </c>
       <c r="B29" t="s">
-        <v>33</v>
+        <v>101</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>90</v>
+        <v>47</v>
       </c>
       <c r="B30" t="s">
-        <v>91</v>
+        <v>46</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>80</v>
+        <v>65</v>
       </c>
       <c r="B31" t="s">
-        <v>89</v>
+        <v>64</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="B32" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>97</v>
+        <v>90</v>
       </c>
       <c r="B33" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="B34" t="s">
-        <v>71</v>
+        <v>89</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>105</v>
+        <v>37</v>
       </c>
       <c r="B35" t="s">
-        <v>104</v>
+        <v>36</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>56</v>
+        <v>97</v>
       </c>
       <c r="B36" t="s">
-        <v>57</v>
+        <v>96</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>8</v>
+        <v>70</v>
       </c>
       <c r="B37" t="s">
-        <v>9</v>
+        <v>71</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>59</v>
+        <v>105</v>
       </c>
       <c r="B38" t="s">
-        <v>58</v>
+        <v>104</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="B39" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>41</v>
+        <v>8</v>
       </c>
       <c r="B40" t="s">
-        <v>40</v>
+        <v>9</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>16</v>
+        <v>59</v>
       </c>
       <c r="B41" t="s">
-        <v>17</v>
+        <v>58</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>24</v>
+        <v>62</v>
       </c>
       <c r="B42" t="s">
-        <v>25</v>
+        <v>63</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>11</v>
+        <v>41</v>
       </c>
       <c r="B43" t="s">
-        <v>10</v>
+        <v>40</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>92</v>
+        <v>16</v>
       </c>
       <c r="B44" t="s">
-        <v>93</v>
+        <v>17</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="B45" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>53</v>
+        <v>11</v>
       </c>
       <c r="B46" t="s">
-        <v>52</v>
+        <v>10</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>54</v>
+        <v>92</v>
       </c>
       <c r="B47" t="s">
-        <v>55</v>
+        <v>93</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>60</v>
+        <v>20</v>
       </c>
       <c r="B48" t="s">
-        <v>61</v>
+        <v>21</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>28</v>
+        <v>53</v>
       </c>
       <c r="B49" t="s">
-        <v>29</v>
+        <v>52</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>85</v>
+        <v>54</v>
       </c>
       <c r="B50" t="s">
-        <v>86</v>
+        <v>55</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>49</v>
+        <v>60</v>
       </c>
       <c r="B51" t="s">
-        <v>48</v>
+        <v>61</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>2</v>
+        <v>28</v>
       </c>
       <c r="B52" t="s">
-        <v>3</v>
+        <v>29</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
+        <v>85</v>
+      </c>
+      <c r="B53" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>112</v>
+      </c>
+      <c r="B54" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>49</v>
+      </c>
+      <c r="B55" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>2</v>
+      </c>
+      <c r="B56" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
         <v>74</v>
       </c>
-      <c r="B53" t="s">
+      <c r="B57" t="s">
         <v>75</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A3:B53">
-    <sortCondition ref="B1:B53"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A3:B57">
+    <sortCondition ref="B1:B57"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId1"/>

--- a/items.xlsx
+++ b/items.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\eledah\Documents\GitHub\pmonitor\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6BBF3DD3-4B2C-4D47-B4BB-0C03AE5CB5B3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3794B0CA-0D61-4F49-A7CC-1F3839DB395B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="114">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="118">
   <si>
     <t>https://www.digikala.com/product/dkp-2462482/%D8%AE%DB%8C%D8%A7%D8%B1-%D8%B4%D9%88%D8%B1-%D8%B3%D8%A7%D9%84%DB%8C-15-%DA%A9%DB%8C%D9%84%D9%88%DA%AF%D8%B1%D9%85/</t>
   </si>
@@ -367,6 +367,18 @@
   </si>
   <si>
     <t>نیم‌بوت زنانه چرم مشهد</t>
+  </si>
+  <si>
+    <t>https://www.digikala.com/product/dkp-12896479/%D8%B3%D8%A7%D8%B9%D8%AA-%D9%87%D9%88%D8%B4%D9%85%D9%86%D8%AF-%D9%85%D8%AF%D9%84-k59pro/</t>
+  </si>
+  <si>
+    <t>ساعت هوشمند مدل K59pro</t>
+  </si>
+  <si>
+    <t>یخچال و فریزر برفاب</t>
+  </si>
+  <si>
+    <t>https://www.digikala.com/product/dkp-330265/%DB%8C%D8%AE%DA%86%D8%A7%D9%84-%D9%88-%D9%81%D8%B1%DB%8C%D8%B2%D8%B1-%D8%A8%D8%B1%D9%81%D8%A7%D8%A8-%D9%85%D8%AF%D9%84-70-30/</t>
   </si>
 </sst>
 </file>
@@ -684,10 +696,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B57"/>
+  <dimension ref="A1:B59"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -906,255 +918,271 @@
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>76</v>
+        <v>114</v>
       </c>
       <c r="B27" t="s">
-        <v>77</v>
+        <v>115</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>68</v>
+        <v>76</v>
       </c>
       <c r="B28" t="s">
-        <v>69</v>
+        <v>77</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>98</v>
+        <v>68</v>
       </c>
       <c r="B29" t="s">
-        <v>101</v>
+        <v>69</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>47</v>
+        <v>98</v>
       </c>
       <c r="B30" t="s">
-        <v>46</v>
+        <v>101</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>65</v>
+        <v>47</v>
       </c>
       <c r="B31" t="s">
-        <v>64</v>
+        <v>46</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>32</v>
+        <v>65</v>
       </c>
       <c r="B32" t="s">
-        <v>33</v>
+        <v>64</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>90</v>
+        <v>32</v>
       </c>
       <c r="B33" t="s">
-        <v>91</v>
+        <v>33</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="B34" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>37</v>
+        <v>80</v>
       </c>
       <c r="B35" t="s">
-        <v>36</v>
+        <v>89</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>97</v>
+        <v>37</v>
       </c>
       <c r="B36" t="s">
-        <v>96</v>
+        <v>36</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>70</v>
+        <v>97</v>
       </c>
       <c r="B37" t="s">
-        <v>71</v>
+        <v>96</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>105</v>
+        <v>70</v>
       </c>
       <c r="B38" t="s">
-        <v>104</v>
+        <v>71</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>56</v>
+        <v>105</v>
       </c>
       <c r="B39" t="s">
-        <v>57</v>
+        <v>104</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>8</v>
+        <v>56</v>
       </c>
       <c r="B40" t="s">
-        <v>9</v>
+        <v>57</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>59</v>
+        <v>8</v>
       </c>
       <c r="B41" t="s">
-        <v>58</v>
+        <v>9</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="B42" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>41</v>
+        <v>62</v>
       </c>
       <c r="B43" t="s">
-        <v>40</v>
+        <v>63</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>16</v>
+        <v>41</v>
       </c>
       <c r="B44" t="s">
-        <v>17</v>
+        <v>40</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="B45" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>11</v>
+        <v>24</v>
       </c>
       <c r="B46" t="s">
-        <v>10</v>
+        <v>25</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>92</v>
+        <v>11</v>
       </c>
       <c r="B47" t="s">
-        <v>93</v>
+        <v>10</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>20</v>
+        <v>92</v>
       </c>
       <c r="B48" t="s">
-        <v>21</v>
+        <v>93</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>53</v>
+        <v>20</v>
       </c>
       <c r="B49" t="s">
-        <v>52</v>
+        <v>21</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B50" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="B51" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>28</v>
+        <v>60</v>
       </c>
       <c r="B52" t="s">
-        <v>29</v>
+        <v>61</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>85</v>
+        <v>28</v>
       </c>
       <c r="B53" t="s">
-        <v>86</v>
+        <v>29</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>112</v>
+        <v>85</v>
       </c>
       <c r="B54" t="s">
-        <v>113</v>
+        <v>86</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>49</v>
+        <v>112</v>
       </c>
       <c r="B55" t="s">
-        <v>48</v>
+        <v>113</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>2</v>
+        <v>49</v>
       </c>
       <c r="B56" t="s">
-        <v>3</v>
+        <v>48</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
+        <v>2</v>
+      </c>
+      <c r="B57" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
         <v>74</v>
       </c>
-      <c r="B57" t="s">
+      <c r="B58" t="s">
         <v>75</v>
       </c>
     </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
+        <v>117</v>
+      </c>
+      <c r="B59" t="s">
+        <v>116</v>
+      </c>
+    </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A3:B57">
-    <sortCondition ref="B1:B57"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A3:B59">
+    <sortCondition ref="B27:B59"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId1"/>

--- a/items.xlsx
+++ b/items.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\eledah\Documents\GitHub\pmonitor\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3794B0CA-0D61-4F49-A7CC-1F3839DB395B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7087E123-F84C-4704-B71B-45ECCCEAE672}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3075" yWindow="3075" windowWidth="15540" windowHeight="10800" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="118">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="122">
   <si>
     <t>https://www.digikala.com/product/dkp-2462482/%D8%AE%DB%8C%D8%A7%D8%B1-%D8%B4%D9%88%D8%B1-%D8%B3%D8%A7%D9%84%DB%8C-15-%DA%A9%DB%8C%D9%84%D9%88%DA%AF%D8%B1%D9%85/</t>
   </si>
@@ -379,6 +379,18 @@
   </si>
   <si>
     <t>https://www.digikala.com/product/dkp-330265/%DB%8C%D8%AE%DA%86%D8%A7%D9%84-%D9%88-%D9%81%D8%B1%DB%8C%D8%B2%D8%B1-%D8%A8%D8%B1%D9%81%D8%A7%D8%A8-%D9%85%D8%AF%D9%84-70-30/</t>
+  </si>
+  <si>
+    <t>https://www.digikala.com/product/dkp-1515246/%D9%81%D9%84%D9%81%D9%84-%D8%B3%DB%8C%D8%A7%D9%87-%D9%87%D8%A7%D8%AA%DB%8C-%DA%A9%D8%A7%D8%B1%D8%A7-%D9%88%D8%B2%D9%86-500-%DA%AF%D8%B1%D9%85/</t>
+  </si>
+  <si>
+    <t>فلفل سیاه هاتی کارا - 500 گرم</t>
+  </si>
+  <si>
+    <t>پسته اکبری ترد نمکی دست چین شودیک - 1000 گرم</t>
+  </si>
+  <si>
+    <t>https://www.digikala.com/product/dkp-12457748/%D9%BE%D8%B3%D8%AA%D9%87-%D8%A7%DA%A9%D8%A8%D8%B1%DB%8C-%D8%AA%D8%B1%D8%AF-%D9%86%D9%85%DA%A9%DB%8C-%D8%AF%D8%B3%D8%AA-%DA%86%DB%8C%D9%86-%D8%B4%D9%88%D8%AF%DB%8C%DA%A9-1000-%DA%AF%D8%B1%D9%85/</t>
   </si>
 </sst>
 </file>
@@ -696,10 +708,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B59"/>
+  <dimension ref="A1:B61"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -766,423 +778,439 @@
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>99</v>
+        <v>121</v>
       </c>
       <c r="B8" t="s">
-        <v>100</v>
+        <v>120</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>39</v>
+        <v>99</v>
       </c>
       <c r="B9" t="s">
-        <v>38</v>
+        <v>100</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>26</v>
+        <v>39</v>
       </c>
       <c r="B10" t="s">
-        <v>27</v>
+        <v>38</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>110</v>
+        <v>26</v>
       </c>
       <c r="B11" t="s">
-        <v>111</v>
+        <v>27</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>45</v>
+        <v>110</v>
       </c>
       <c r="B12" t="s">
-        <v>44</v>
+        <v>111</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>102</v>
+        <v>45</v>
       </c>
       <c r="B13" t="s">
-        <v>103</v>
+        <v>44</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>88</v>
+        <v>102</v>
       </c>
       <c r="B14" t="s">
-        <v>87</v>
+        <v>103</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>72</v>
+        <v>88</v>
       </c>
       <c r="B15" t="s">
-        <v>73</v>
+        <v>87</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>18</v>
+        <v>72</v>
       </c>
       <c r="B16" t="s">
-        <v>19</v>
+        <v>73</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="B17" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>66</v>
+        <v>14</v>
       </c>
       <c r="B18" t="s">
-        <v>67</v>
+        <v>15</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>81</v>
+        <v>66</v>
       </c>
       <c r="B19" t="s">
-        <v>82</v>
+        <v>67</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>0</v>
+        <v>81</v>
       </c>
       <c r="B20" t="s">
-        <v>1</v>
+        <v>82</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>78</v>
+        <v>0</v>
       </c>
       <c r="B21" t="s">
-        <v>79</v>
+        <v>1</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>94</v>
+        <v>78</v>
       </c>
       <c r="B22" t="s">
-        <v>95</v>
+        <v>79</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>12</v>
+        <v>94</v>
       </c>
       <c r="B23" t="s">
-        <v>13</v>
+        <v>95</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>43</v>
+        <v>12</v>
       </c>
       <c r="B24" t="s">
-        <v>42</v>
+        <v>13</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>5</v>
+        <v>43</v>
       </c>
       <c r="B25" t="s">
-        <v>4</v>
+        <v>42</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>109</v>
+        <v>5</v>
       </c>
       <c r="B26" t="s">
-        <v>106</v>
+        <v>4</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="B27" t="s">
-        <v>115</v>
+        <v>106</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>76</v>
+        <v>114</v>
       </c>
       <c r="B28" t="s">
-        <v>77</v>
+        <v>115</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>68</v>
+        <v>76</v>
       </c>
       <c r="B29" t="s">
-        <v>69</v>
+        <v>77</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>98</v>
+        <v>68</v>
       </c>
       <c r="B30" t="s">
-        <v>101</v>
+        <v>69</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>47</v>
+        <v>98</v>
       </c>
       <c r="B31" t="s">
-        <v>46</v>
+        <v>101</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>65</v>
+        <v>47</v>
       </c>
       <c r="B32" t="s">
-        <v>64</v>
+        <v>46</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>32</v>
+        <v>65</v>
       </c>
       <c r="B33" t="s">
-        <v>33</v>
+        <v>64</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>90</v>
+        <v>32</v>
       </c>
       <c r="B34" t="s">
-        <v>91</v>
+        <v>33</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="B35" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>37</v>
+        <v>80</v>
       </c>
       <c r="B36" t="s">
-        <v>36</v>
+        <v>89</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>97</v>
+        <v>37</v>
       </c>
       <c r="B37" t="s">
-        <v>96</v>
+        <v>36</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>70</v>
+        <v>118</v>
       </c>
       <c r="B38" t="s">
-        <v>71</v>
+        <v>119</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>105</v>
+        <v>97</v>
       </c>
       <c r="B39" t="s">
-        <v>104</v>
+        <v>96</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>56</v>
+        <v>70</v>
       </c>
       <c r="B40" t="s">
-        <v>57</v>
+        <v>71</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>8</v>
+        <v>105</v>
       </c>
       <c r="B41" t="s">
-        <v>9</v>
+        <v>104</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="B42" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>62</v>
+        <v>8</v>
       </c>
       <c r="B43" t="s">
-        <v>63</v>
+        <v>9</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>41</v>
+        <v>59</v>
       </c>
       <c r="B44" t="s">
-        <v>40</v>
+        <v>58</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>16</v>
+        <v>62</v>
       </c>
       <c r="B45" t="s">
-        <v>17</v>
+        <v>63</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>24</v>
+        <v>41</v>
       </c>
       <c r="B46" t="s">
-        <v>25</v>
+        <v>40</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="B47" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>92</v>
+        <v>24</v>
       </c>
       <c r="B48" t="s">
-        <v>93</v>
+        <v>25</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="B49" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>53</v>
+        <v>92</v>
       </c>
       <c r="B50" t="s">
-        <v>52</v>
+        <v>93</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>54</v>
+        <v>20</v>
       </c>
       <c r="B51" t="s">
-        <v>55</v>
+        <v>21</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="B52" t="s">
-        <v>61</v>
+        <v>52</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>28</v>
+        <v>54</v>
       </c>
       <c r="B53" t="s">
-        <v>29</v>
+        <v>55</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>85</v>
+        <v>60</v>
       </c>
       <c r="B54" t="s">
-        <v>86</v>
+        <v>61</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>112</v>
+        <v>28</v>
       </c>
       <c r="B55" t="s">
-        <v>113</v>
+        <v>29</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>49</v>
+        <v>85</v>
       </c>
       <c r="B56" t="s">
-        <v>48</v>
+        <v>86</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>2</v>
+        <v>112</v>
       </c>
       <c r="B57" t="s">
-        <v>3</v>
+        <v>113</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>74</v>
+        <v>49</v>
       </c>
       <c r="B58" t="s">
-        <v>75</v>
+        <v>48</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
+        <v>2</v>
+      </c>
+      <c r="B59" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
+        <v>74</v>
+      </c>
+      <c r="B60" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
         <v>117</v>
       </c>
-      <c r="B59" t="s">
+      <c r="B61" t="s">
         <v>116</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A3:B59">
-    <sortCondition ref="B27:B59"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A3:B61">
+    <sortCondition ref="B47:B61"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId1"/>

--- a/items.xlsx
+++ b/items.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\eledah\Documents\GitHub\pmonitor\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7087E123-F84C-4704-B71B-45ECCCEAE672}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{18A32A00-EAFE-43DF-822B-C1971A72BB06}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3075" yWindow="3075" windowWidth="15540" windowHeight="10800" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -144,9 +144,6 @@
     <t>پنیر فتا دوشه هراز- 400 گرم</t>
   </si>
   <si>
-    <t>https://www.digikala.com/product/dkp-1485597/%D9%BE%D9%86%DB%8C%D8%B1-%D9%81%D8%AA%D8%A7-%D8%AF%D9%88%D8%B4%D9%87-%D9%87%D8%B1%D8%A7%D8%B2-%D9%85%D9%82%D8%AF%D8%A7%D8%B1-400-%DA%AF%D8%B1%D9%85/</t>
-  </si>
-  <si>
     <t>کنسرو ماهی تن در روغن مایع ساحل - 180 گرم</t>
   </si>
   <si>
@@ -237,9 +234,6 @@
     <t>سرویس 26 پارچه اپال</t>
   </si>
   <si>
-    <t>https://www.digikala.com/product/dkp-4714424/%D9%82%D8%B1%D8%B5-%D9%85%D8%A7%D8%B4%D9%8A%D9%86-%D8%B8%D8%B1%D9%81%D8%B4%D9%88%D9%8A%DB%8C-%D9%87%D9%88%D9%85-%D9%BE%D9%84%D8%A7%D8%B3-%D9%85%D8%AF%D9%84-lemon-%D8%A8%D8%B3%D8%AA%D9%87-48-%D8%B9%D8%AF%D8%AF%DB%8C/</t>
-  </si>
-  <si>
     <t>قرص ماشین ظرفشویی هوم پلاس 48 عددی</t>
   </si>
   <si>
@@ -321,12 +315,6 @@
     <t>https://www.digikala.com/product/dkp-4588938/%D9%81%DB%8C%D9%84%D9%87-%D9%85%D8%A7%D9%87%DB%8C-%D8%AD%D8%B3%D9%88%D9%86-%D8%AC%D9%86%D9%88%D8%A8-%D9%BE%D9%85%DB%8C%D9%86%D8%A7-700-%DA%AF%D8%B1%D9%85/</t>
   </si>
   <si>
-    <t>https://www.digikala.com/product/dkp-757476/%D8%B3%DB%8C%D8%A8-%D8%B2%D9%85%DB%8C%D9%86%DB%8C-%D8%B7%D9%84%D8%A7%DB%8C%DB%8C-%D9%85%D9%86%D8%AC%D9%85%D8%AF-%D8%B3%D8%B1%D8%AF-%D9%88-%D8%AA%D8%A7%D8%B2%D9%87-%D9%85%D9%82%D8%AF%D8%A7%D8%B1-750-%DA%AF%D8%B1%D9%85/</t>
-  </si>
-  <si>
-    <t>https://www.digikala.com/product/dkp-1023378/%D9%BE%D9%86%DB%8C%D8%B1-%D9%BE%DB%8C%D8%AA%D8%B2%D8%A7-%D8%AA%D8%A7%D9%BE%DB%8C%D9%86%DA%AF-%D8%A8%D8%A7-%D8%B7%D8%B9%D9%85-%D9%85%D9%88%D8%B2%D8%A7%D8%B1%D9%84%D8%A7-%D9%88-%DA%86%D8%AF%D8%A7%D8%B1-%D8%B1%D9%86%D8%AF%D9%87-%D8%B4%D8%AF%D9%87-%DA%A9%D8%A7%D9%84%DB%8C%D9%86-1000-%DA%AF%D8%B1%D9%85/</t>
-  </si>
-  <si>
     <t>پنیر پیتزا رنده شده کالین - 1000 گرم</t>
   </si>
   <si>
@@ -391,6 +379,18 @@
   </si>
   <si>
     <t>https://www.digikala.com/product/dkp-12457748/%D9%BE%D8%B3%D8%AA%D9%87-%D8%A7%DA%A9%D8%A8%D8%B1%DB%8C-%D8%AA%D8%B1%D8%AF-%D9%86%D9%85%DA%A9%DB%8C-%D8%AF%D8%B3%D8%AA-%DA%86%DB%8C%D9%86-%D8%B4%D9%88%D8%AF%DB%8C%DA%A9-1000-%DA%AF%D8%B1%D9%85/</t>
+  </si>
+  <si>
+    <t>https://www.digikala.com/fresh/product/dkp-4714424/</t>
+  </si>
+  <si>
+    <t>https://www.digikala.com/fresh/product/dkp-757476/</t>
+  </si>
+  <si>
+    <t>https://www.digikala.com/fresh/product/dkp-1023378/</t>
+  </si>
+  <si>
+    <t>https://www.digikala.com/fresh/product/dkp-1485597/</t>
   </si>
 </sst>
 </file>
@@ -711,7 +711,7 @@
   <dimension ref="A1:B61"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A12" sqref="A12"/>
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -722,18 +722,18 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B1" t="s">
         <v>50</v>
-      </c>
-      <c r="B1" t="s">
-        <v>51</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="B2" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
@@ -762,10 +762,10 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="B6" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
@@ -778,23 +778,23 @@
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="B8" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>99</v>
+        <v>120</v>
       </c>
       <c r="B9" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>39</v>
+        <v>121</v>
       </c>
       <c r="B10" t="s">
         <v>38</v>
@@ -810,42 +810,42 @@
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="B12" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B13" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="B14" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B15" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="B16" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
@@ -866,18 +866,18 @@
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
+        <v>65</v>
+      </c>
+      <c r="B19" t="s">
         <v>66</v>
-      </c>
-      <c r="B19" t="s">
-        <v>67</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="B20" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
@@ -890,18 +890,18 @@
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="B22" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="B23" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
@@ -914,10 +914,10 @@
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B25" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
@@ -930,58 +930,58 @@
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="B27" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="B28" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B29" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
+        <v>67</v>
+      </c>
+      <c r="B30" t="s">
         <v>68</v>
-      </c>
-      <c r="B30" t="s">
-        <v>69</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>98</v>
+        <v>119</v>
       </c>
       <c r="B31" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B32" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B33" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.25">
@@ -994,18 +994,18 @@
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B35" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="B36" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.25">
@@ -1018,42 +1018,42 @@
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="B38" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="B39" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>70</v>
+        <v>118</v>
       </c>
       <c r="B40" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="B41" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
+        <v>55</v>
+      </c>
+      <c r="B42" t="s">
         <v>56</v>
-      </c>
-      <c r="B42" t="s">
-        <v>57</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.25">
@@ -1066,26 +1066,26 @@
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B44" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
+        <v>61</v>
+      </c>
+      <c r="B45" t="s">
         <v>62</v>
-      </c>
-      <c r="B45" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B46" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.25">
@@ -1114,10 +1114,10 @@
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="B50" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.25">
@@ -1130,26 +1130,26 @@
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B52" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
+        <v>53</v>
+      </c>
+      <c r="B53" t="s">
         <v>54</v>
-      </c>
-      <c r="B53" t="s">
-        <v>55</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
+        <v>59</v>
+      </c>
+      <c r="B54" t="s">
         <v>60</v>
-      </c>
-      <c r="B54" t="s">
-        <v>61</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.25">
@@ -1162,26 +1162,26 @@
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="B56" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="B57" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B58" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.25">
@@ -1194,18 +1194,18 @@
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="B60" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="B61" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
     </row>
   </sheetData>

--- a/items.xlsx
+++ b/items.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\eledah\Documents\GitHub\pmonitor\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{18A32A00-EAFE-43DF-822B-C1971A72BB06}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C6F5B153-20A9-43EF-8FEB-4EC1B9BAFBBA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -27,9 +27,6 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="122">
   <si>
-    <t>https://www.digikala.com/product/dkp-2462482/%D8%AE%DB%8C%D8%A7%D8%B1-%D8%B4%D9%88%D8%B1-%D8%B3%D8%A7%D9%84%DB%8C-15-%DA%A9%DB%8C%D9%84%D9%88%DA%AF%D8%B1%D9%85/</t>
-  </si>
-  <si>
     <t>خیار شور سالی - 1.5 کیلوگرم</t>
   </si>
   <si>
@@ -93,9 +90,6 @@
     <t>ماشین لباسشویی دوو</t>
   </si>
   <si>
-    <t>https://www.digikala.com/product/dkp-3175459/%D8%A8%D8%B1%D9%86%D8%AC-%D9%87%D8%A7%D8%B4%D9%85%DB%8C-%D9%85%D9%85%D8%AA%D8%A7%D8%B2-%D8%B7%D8%A8%DB%8C%D8%B9%D8%AA-10-%DA%A9%DB%8C%D9%84%D9%88%DA%AF%D8%B1%D9%85/</t>
-  </si>
-  <si>
     <t>برنج هاشمی ممتاز طبیعت - 10 کیلوگرم</t>
   </si>
   <si>
@@ -105,9 +99,6 @@
     <t>کیف کمری چرمی</t>
   </si>
   <si>
-    <t>https://www.digikala.com/product/dkp-7932748/%D9%BE%D9%88%D8%B4%DA%A9-%D8%A8%DA%86%D9%87-%D9%87%D8%A7%D9%86%DB%8C%D8%B2-%D8%B3%D8%A7%DB%8C%D8%B2-4-%D8%A8%D8%B3%D8%AA%D9%87-34-%D8%B9%D8%AF%D8%AF%DB%8C</t>
-  </si>
-  <si>
     <t>پوشک بچه هانیز</t>
   </si>
   <si>
@@ -147,27 +138,15 @@
     <t>کنسرو ماهی تن در روغن مایع ساحل - 180 گرم</t>
   </si>
   <si>
-    <t>https://www.digikala.com/product/dkp-797406/%DA%A9%D9%86%D8%B3%D8%B1%D9%88-%D9%85%D8%A7%D9%87%DB%8C-%D8%AA%D9%86-%D8%AF%D8%B1-%D8%B1%D9%88%D8%BA%D9%86-%D9%85%D8%A7%DB%8C%D8%B9-%D8%B3%D8%A7%D8%AD%D9%84-180-%DA%AF%D8%B1%D9%85/</t>
-  </si>
-  <si>
     <t>روغن آفتابگردان غنچه پلاس - 900 میلی لیتر</t>
   </si>
   <si>
-    <t>https://www.digikala.com/product/dkp-8511786/%D8%B1%D9%88%D8%BA%D9%86-%D8%A2%D9%81%D8%AA%D8%A7%D8%A8%DA%AF%D8%B1%D8%AF%D8%A7%D9%86-%D8%AD%D8%A7%D9%88%DB%8C-%D8%AA%D9%88%DA%A9%D9%88%D9%81%D8%B1%D9%88%D9%84-%D8%BA%D9%86%DA%86%D9%87-%D9%BE%D9%84%D8%A7%D8%B3-900-%D9%85%DB%8C%D9%84%DB%8C-%D9%84%DB%8C%D8%AA%D8%B1/</t>
-  </si>
-  <si>
     <t>تخم مرغ گرید B پروتانا بسته 20 عددی</t>
   </si>
   <si>
-    <t>https://www.digikala.com/product/dkp-1433777/%D8%AA%D8%AE%D9%85-%D9%85%D8%B1%D8%BA-%D8%AA%D8%A7%D8%B2%D9%87-%D8%AA%D9%86%D8%B8%DB%8C%D9%85-%D8%A8%D8%A7%D8%B2%D8%A7%D8%B1-%D9%BE%D8%B1%D9%88%D8%AA%D8%A7%D9%86%D8%A7-%D8%A8%D8%B3%D8%AA%D9%87-20-%D8%B9%D8%AF%D8%AF%DB%8C/</t>
-  </si>
-  <si>
     <t>سینه مرغ بی پوست مهیا پروتئین - 900 گرم</t>
   </si>
   <si>
-    <t>https://www.digikala.com/product/dkp-792166/%D8%B3%DB%8C%D9%86%D9%87-%D9%85%D8%B1%D8%BA-%D8%A8%DB%8C-%D9%BE%D9%88%D8%B3%D8%AA-%D9%85%D9%87%DB%8C%D8%A7-%D9%BE%D8%B1%D9%88%D8%AA%D8%A6%DB%8C%D9%86-900-%DA%AF%D8%B1%D9%85/</t>
-  </si>
-  <si>
     <t>هارد اکسترنال وسترن دیجیتال 1 ترابایت</t>
   </si>
   <si>
@@ -183,9 +162,6 @@
     <t>ماکارونی پنه زر ماکارون 500 گرم</t>
   </si>
   <si>
-    <t>https://www.digikala.com/product/dkp-633507/%D9%85%D8%A7%DA%A9%D8%A7%D8%B1%D9%88%D9%86%DB%8C-%D9%BE%D9%86%D9%87-%D8%B1%DB%8C%DA%AF%D8%A7%D8%AA%D9%87-%D8%B2%D8%B1-%D9%85%D8%A7%DA%A9%D8%A7%D8%B1%D9%88%D9%86-%D9%85%D9%82%D8%AF%D8%A7%D8%B1-500-%DA%AF%D8%B1%D9%85/</t>
-  </si>
-  <si>
     <t>https://www.digikala.com/product/dkp-7917881/%D9%85%D8%A7%D9%86%DB%8C%D8%AA%D9%88%D8%B1-%D8%AC%DB%8C-%D9%BE%D9%84%D8%A7%D8%B3-%D9%85%D8%AF%D9%84-gdm-245ln-%D8%B3%D8%A7%DB%8C%D8%B2-24-%D8%A7%DB%8C%D9%86%DA%86/</t>
   </si>
   <si>
@@ -201,9 +177,6 @@
     <t>کره حیوانی پاستوریزه میهن - 100 گرم</t>
   </si>
   <si>
-    <t>https://www.digikala.com/product/dkp-939272/%DA%A9%D8%B1%D9%87-%D8%AD%DB%8C%D9%88%D8%A7%D9%86%DB%8C-%D9%BE%D8%A7%D8%B3%D8%AA%D9%88%D8%B1%DB%8C%D8%B2%D9%87-%D9%85%DB%8C%D9%87%D9%86-100-%DA%AF%D8%B1%D9%85/</t>
-  </si>
-  <si>
     <t>https://www.digikala.com/product/dkp-3723719/%D9%85%D8%A8%D9%84-%D8%B1%D8%A7%D8%AD%D8%AA%DB%8C-7-%D9%86%D9%81%D8%B1%D9%87-%D9%85%D8%AF%D9%84-%D8%A2%D8%B1%D8%AA%D8%A7%D9%86-%DA%A9%D8%AF-015/</t>
   </si>
   <si>
@@ -264,21 +237,12 @@
     <t>https://www.digikala.com/product/dkp-3540612/%D8%BA%D8%B0%D8%A7%DB%8C-%D8%AE%D8%B4%DA%A9-%DA%AF%D8%B1%D8%A8%D9%87-%D9%85%D9%81%DB%8C%D8%AF-%D9%85%D8%AF%D9%84-adult1400-%D9%88%D8%B2%D9%86-2-%DA%A9%DB%8C%D9%84%D9%88%DA%AF%D8%B1%D9%85/</t>
   </si>
   <si>
-    <t>https://www.digikala.com/product/dkp-581175/%DA%86%D8%A7%DB%8C-%D8%B3%DB%8C%D8%A7%D9%87-%DA%AF%D9%84%D8%B3%D8%AA%D8%A7%D9%86-%D9%85%D8%AF%D9%84-%D9%85%D9%85%D8%AA%D8%A7%D8%B2-%D9%87%D9%86%D8%AF%D9%88%D8%B3%D8%AA%D8%A7%D9%86-500-%DA%AF%D8%B1%D9%85/</t>
-  </si>
-  <si>
     <t>چای سیاه گلستان مدل ممتاز هندوستان - 500 گرم</t>
   </si>
   <si>
     <t xml:space="preserve">آب معدنی میوا - 1.5 لیتر بسته 6 عددی </t>
   </si>
   <si>
-    <t>https://www.digikala.com/product/dkp-3439306/%D8%A2%D8%A8-%D9%85%D8%B9%D8%AF%D9%86%DB%8C-%D9%85%DB%8C%D9%88%D8%A7-15-%D9%84%DB%8C%D8%AA%D8%B1-%D8%A8%D8%B3%D8%AA%D9%87-6-%D8%B9%D8%AF%D8%AF%DB%8C/</t>
-  </si>
-  <si>
-    <t>https://www.digikala.com/product/dkp-1923615/%D9%86%D9%88%D8%B4%D8%A7%D8%A8%D9%87-%DA%A9%D9%88%D9%84%D8%A7-%D9%BE%D9%BE%D8%B3%DB%8C-15-%D9%84%DB%8C%D8%AA%D8%B1-%D8%A8%D8%B3%D8%AA%D9%87-6-%D8%B9%D8%AF%D8%AF%DB%8C/</t>
-  </si>
-  <si>
     <t>نوشابه  پپسی - 1.5 لیتر بسته 6 عددی</t>
   </si>
   <si>
@@ -303,9 +267,6 @@
     <t>لپ تاپ 15.6 اینچی اچ‌پی Pavilion x360</t>
   </si>
   <si>
-    <t>https://www.digikala.com/product/dkp-1553412/%D8%B1%D8%A7%D8%B3%D8%AA%D9%87-%DA%AF%D9%88%D8%B3%D9%81%D9%86%D8%AF-%D9%85%D9%87%D8%AA%D8%A7-%D9%BE%D8%B1%D9%88%D8%AA%D8%A6%DB%8C%D9%86-1-%DA%A9%DB%8C%D9%84%D9%88%DA%AF%D8%B1%D9%85-%D8%A8%D8%A7-%D8%A7%D8%B1%D8%B2-%D9%86%DB%8C%D9%85%D8%A7%DB%8C%DB%8C/</t>
-  </si>
-  <si>
     <t>راسته گوسفند مهتا پروتئین - 1 کیلوگرم - با ارز نیمایی</t>
   </si>
   <si>
@@ -345,9 +306,6 @@
     <t>https://www.digikala.com/product/dkp-515367/%DA%98%D9%84-%D8%B4%D8%B3%D8%AA%D8%B4%D9%88-%D9%88-%D9%84%D8%A7%DB%8C%D9%87-%D8%A8%D8%B1%D8%AF%D8%A7%D8%B1-%D8%B5%D9%88%D8%B1%D8%AA-%D9%84%D8%A7%D9%81%D8%A7%D8%B1%D8%B1-%D9%85%D8%AF%D9%84-01-%D9%85%D9%86%D8%A7%D8%B3%D8%A8-%D9%BE%D9%88%D8%B3%D8%AA-%D9%87%D8%A7%DB%8C-%DA%86%D8%B1%D8%A8-%D8%AD%D8%AC%D9%85-150-%D9%85%DB%8C%D9%84%DB%8C-%D9%84%DB%8C%D8%AA%D8%B1/</t>
   </si>
   <si>
-    <t>https://www.digikala.com/product/dkp-3765912/%D9%BE%D9%88%D8%B4%DA%A9-%DA%A9%D9%88%D8%AF%DA%A9-%D9%85%D9%88%D9%84%D9%81%DB%8C%DA%A9%D8%B3-%D8%B3%D8%A7%DB%8C%D8%B2-4-%D8%A8%D8%B3%D8%AA%D9%87-34-%D8%B9%D8%AF%D8%AF%DB%8C/</t>
-  </si>
-  <si>
     <t>پوشک مولفیکس سایز ۴</t>
   </si>
   <si>
@@ -369,9 +327,6 @@
     <t>https://www.digikala.com/product/dkp-330265/%DB%8C%D8%AE%DA%86%D8%A7%D9%84-%D9%88-%D9%81%D8%B1%DB%8C%D8%B2%D8%B1-%D8%A8%D8%B1%D9%81%D8%A7%D8%A8-%D9%85%D8%AF%D9%84-70-30/</t>
   </si>
   <si>
-    <t>https://www.digikala.com/product/dkp-1515246/%D9%81%D9%84%D9%81%D9%84-%D8%B3%DB%8C%D8%A7%D9%87-%D9%87%D8%A7%D8%AA%DB%8C-%DA%A9%D8%A7%D8%B1%D8%A7-%D9%88%D8%B2%D9%86-500-%DA%AF%D8%B1%D9%85/</t>
-  </si>
-  <si>
     <t>فلفل سیاه هاتی کارا - 500 گرم</t>
   </si>
   <si>
@@ -391,6 +346,51 @@
   </si>
   <si>
     <t>https://www.digikala.com/fresh/product/dkp-1485597/</t>
+  </si>
+  <si>
+    <t>https://www.digikala.com/fresh/product/dkp-797406/</t>
+  </si>
+  <si>
+    <t>https://www.digikala.com/fresh/product/dkp-939272/</t>
+  </si>
+  <si>
+    <t>https://www.digikala.com/fresh/product/dkp-3439306/</t>
+  </si>
+  <si>
+    <t>https://www.digikala.com/fresh/product/dkp-3175459/</t>
+  </si>
+  <si>
+    <t>https://www.digikala.com/fresh/product/dkp-7932748/</t>
+  </si>
+  <si>
+    <t>https://www.digikala.com/fresh/product/dkp-3765912/</t>
+  </si>
+  <si>
+    <t>https://www.digikala.com/fresh/product/dkp-2462482/</t>
+  </si>
+  <si>
+    <t>https://www.digikala.com/fresh/product/dkp-1433777/</t>
+  </si>
+  <si>
+    <t>https://www.digikala.com/fresh/product/dkp-581175/</t>
+  </si>
+  <si>
+    <t>https://www.digikala.com/fresh/product/dkp-1553412/</t>
+  </si>
+  <si>
+    <t>https://www.digikala.com/fresh/product/dkp-8511786/</t>
+  </si>
+  <si>
+    <t>https://www.digikala.com/fresh/product/dkp-792166/</t>
+  </si>
+  <si>
+    <t>https://www.digikala.com/fresh/product/dkp-1515246/</t>
+  </si>
+  <si>
+    <t>https://www.digikala.com/fresh/product/dkp-633507/</t>
+  </si>
+  <si>
+    <t>https://www.digikala.com/fresh/product/dkp-1923615/</t>
   </si>
 </sst>
 </file>
@@ -710,502 +710,502 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B61"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+    <sheetView tabSelected="1" topLeftCell="A29" workbookViewId="0">
+      <selection activeCell="C39" sqref="C39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="18.5703125" customWidth="1"/>
+    <col min="1" max="1" width="80.140625" customWidth="1"/>
     <col min="2" max="2" width="39.85546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="B1" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>82</v>
+        <v>109</v>
       </c>
       <c r="B2" t="s">
-        <v>81</v>
+        <v>71</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="B3" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" t="s">
         <v>6</v>
-      </c>
-      <c r="B4" t="s">
-        <v>7</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="B5" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>104</v>
+        <v>91</v>
       </c>
       <c r="B6" t="s">
-        <v>103</v>
+        <v>90</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>22</v>
+        <v>110</v>
       </c>
       <c r="B7" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>117</v>
+        <v>102</v>
       </c>
       <c r="B8" t="s">
-        <v>116</v>
+        <v>101</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>120</v>
+        <v>105</v>
       </c>
       <c r="B9" t="s">
-        <v>96</v>
+        <v>83</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>121</v>
+        <v>106</v>
       </c>
       <c r="B10" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>26</v>
+        <v>111</v>
       </c>
       <c r="B11" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>106</v>
+        <v>112</v>
       </c>
       <c r="B12" t="s">
-        <v>107</v>
+        <v>93</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>44</v>
+        <v>114</v>
       </c>
       <c r="B13" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>98</v>
+        <v>85</v>
       </c>
       <c r="B14" t="s">
-        <v>99</v>
+        <v>86</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>86</v>
+        <v>74</v>
       </c>
       <c r="B15" t="s">
-        <v>85</v>
+        <v>73</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>70</v>
+        <v>61</v>
       </c>
       <c r="B16" t="s">
-        <v>71</v>
+        <v>62</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
+        <v>17</v>
+      </c>
+      <c r="B17" t="s">
         <v>18</v>
-      </c>
-      <c r="B17" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
+        <v>13</v>
+      </c>
+      <c r="B18" t="s">
         <v>14</v>
-      </c>
-      <c r="B18" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>65</v>
+        <v>56</v>
       </c>
       <c r="B19" t="s">
-        <v>66</v>
+        <v>57</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>79</v>
+        <v>115</v>
       </c>
       <c r="B20" t="s">
-        <v>80</v>
+        <v>70</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
+        <v>113</v>
+      </c>
+      <c r="B21" t="s">
         <v>0</v>
-      </c>
-      <c r="B21" t="s">
-        <v>1</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>76</v>
+        <v>67</v>
       </c>
       <c r="B22" t="s">
-        <v>77</v>
+        <v>68</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>92</v>
+        <v>116</v>
       </c>
       <c r="B23" t="s">
-        <v>93</v>
+        <v>80</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
+        <v>11</v>
+      </c>
+      <c r="B24" t="s">
         <v>12</v>
-      </c>
-      <c r="B24" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>42</v>
+        <v>117</v>
       </c>
       <c r="B25" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B26" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>105</v>
+        <v>92</v>
       </c>
       <c r="B27" t="s">
-        <v>102</v>
+        <v>89</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>110</v>
+        <v>96</v>
       </c>
       <c r="B28" t="s">
-        <v>111</v>
+        <v>97</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>74</v>
+        <v>65</v>
       </c>
       <c r="B29" t="s">
-        <v>75</v>
+        <v>66</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>67</v>
+        <v>58</v>
       </c>
       <c r="B30" t="s">
-        <v>68</v>
+        <v>59</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>119</v>
+        <v>104</v>
       </c>
       <c r="B31" t="s">
-        <v>97</v>
+        <v>84</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>46</v>
+        <v>118</v>
       </c>
       <c r="B32" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>64</v>
+        <v>55</v>
       </c>
       <c r="B33" t="s">
-        <v>63</v>
+        <v>54</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="B34" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>88</v>
+        <v>76</v>
       </c>
       <c r="B35" t="s">
-        <v>89</v>
+        <v>77</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>78</v>
+        <v>69</v>
       </c>
       <c r="B36" t="s">
-        <v>87</v>
+        <v>75</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="B37" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>114</v>
+        <v>119</v>
       </c>
       <c r="B38" t="s">
-        <v>115</v>
+        <v>100</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>95</v>
+        <v>82</v>
       </c>
       <c r="B39" t="s">
-        <v>94</v>
+        <v>81</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>118</v>
+        <v>103</v>
       </c>
       <c r="B40" t="s">
-        <v>69</v>
+        <v>60</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>101</v>
+        <v>88</v>
       </c>
       <c r="B41" t="s">
-        <v>100</v>
+        <v>87</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>55</v>
+        <v>47</v>
       </c>
       <c r="B42" t="s">
-        <v>56</v>
+        <v>48</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
+        <v>7</v>
+      </c>
+      <c r="B43" t="s">
         <v>8</v>
-      </c>
-      <c r="B43" t="s">
-        <v>9</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>58</v>
+        <v>108</v>
       </c>
       <c r="B44" t="s">
-        <v>57</v>
+        <v>49</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>61</v>
+        <v>52</v>
       </c>
       <c r="B45" t="s">
-        <v>62</v>
+        <v>53</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>40</v>
+        <v>107</v>
       </c>
       <c r="B46" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
+        <v>15</v>
+      </c>
+      <c r="B47" t="s">
         <v>16</v>
-      </c>
-      <c r="B47" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B48" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B49" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>90</v>
+        <v>78</v>
       </c>
       <c r="B50" t="s">
-        <v>91</v>
+        <v>79</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
+        <v>19</v>
+      </c>
+      <c r="B51" t="s">
         <v>20</v>
-      </c>
-      <c r="B51" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>52</v>
+        <v>120</v>
       </c>
       <c r="B52" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="B53" t="s">
-        <v>54</v>
+        <v>46</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>59</v>
+        <v>50</v>
       </c>
       <c r="B54" t="s">
-        <v>60</v>
+        <v>51</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="B55" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>83</v>
+        <v>121</v>
       </c>
       <c r="B56" t="s">
-        <v>84</v>
+        <v>72</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>108</v>
+        <v>94</v>
       </c>
       <c r="B57" t="s">
-        <v>109</v>
+        <v>95</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="B58" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
+        <v>1</v>
+      </c>
+      <c r="B59" t="s">
         <v>2</v>
-      </c>
-      <c r="B59" t="s">
-        <v>3</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>72</v>
+        <v>63</v>
       </c>
       <c r="B60" t="s">
-        <v>73</v>
+        <v>64</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>113</v>
+        <v>99</v>
       </c>
       <c r="B61" t="s">
-        <v>112</v>
+        <v>98</v>
       </c>
     </row>
   </sheetData>

--- a/items.xlsx
+++ b/items.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Almahdi Laptop\Documents\GitHub\pmonitor\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{83AF4434-EB22-4157-B67C-567C201B6634}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7DEDD3FD-7343-4A74-87B7-B145F0063953}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -321,9 +321,6 @@
     <t>https://www.digikala.com/product/dkp-13025578/</t>
   </si>
   <si>
-    <t>https://www.digikala.com/product/dkp-2309086</t>
-  </si>
-  <si>
     <t>https://www.digikala.com/product/dkp-2891227/</t>
   </si>
   <si>
@@ -391,6 +388,9 @@
   </si>
   <si>
     <t>https://www.digikala.com/product/dkp-4858835/</t>
+  </si>
+  <si>
+    <t>https://www.digikala.com/product/dkp-2309086/</t>
   </si>
 </sst>
 </file>
@@ -711,9 +711,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B61"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="96" workbookViewId="0">
-      <selection activeCell="A19" sqref="A19"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScale="96" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -734,7 +732,7 @@
         <v>22</v>
       </c>
       <c r="B2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
@@ -742,7 +740,7 @@
         <v>57</v>
       </c>
       <c r="B3" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
@@ -774,7 +772,7 @@
         <v>61</v>
       </c>
       <c r="B7" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">
@@ -782,7 +780,7 @@
         <v>62</v>
       </c>
       <c r="B8" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.3">
@@ -790,7 +788,7 @@
         <v>20</v>
       </c>
       <c r="B9" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.3">
@@ -798,7 +796,7 @@
         <v>21</v>
       </c>
       <c r="B10" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.3">
@@ -866,8 +864,8 @@
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A19" s="1" t="s">
-        <v>121</v>
+      <c r="A19" t="s">
+        <v>120</v>
       </c>
       <c r="B19" t="s">
         <v>34</v>
@@ -878,7 +876,7 @@
         <v>25</v>
       </c>
       <c r="B20" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.3">
@@ -918,7 +916,7 @@
         <v>26</v>
       </c>
       <c r="B25" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.3">
@@ -974,7 +972,7 @@
         <v>77</v>
       </c>
       <c r="B32" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.3">
@@ -998,7 +996,7 @@
         <v>80</v>
       </c>
       <c r="B35" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.3">
@@ -1006,7 +1004,7 @@
         <v>81</v>
       </c>
       <c r="B36" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.3">
@@ -1038,7 +1036,7 @@
         <v>85</v>
       </c>
       <c r="B40" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.3">
@@ -1046,7 +1044,7 @@
         <v>86</v>
       </c>
       <c r="B41" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.3">
@@ -1078,7 +1076,7 @@
         <v>48</v>
       </c>
       <c r="B45" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.3">
@@ -1126,7 +1124,7 @@
         <v>27</v>
       </c>
       <c r="B51" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.3">
@@ -1134,7 +1132,7 @@
         <v>94</v>
       </c>
       <c r="B52" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.3">
@@ -1158,7 +1156,7 @@
         <v>28</v>
       </c>
       <c r="B55" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.3">
@@ -1170,16 +1168,16 @@
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A57" t="s">
-        <v>98</v>
+      <c r="A57" s="1" t="s">
+        <v>121</v>
       </c>
       <c r="B57" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B58" t="s">
         <v>54</v>
@@ -1187,7 +1185,7 @@
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B59" t="s">
         <v>55</v>
@@ -1195,7 +1193,7 @@
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B60" t="s">
         <v>56</v>
@@ -1203,7 +1201,7 @@
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B61" t="s">
         <v>33</v>

--- a/items.xlsx
+++ b/items.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Almahdi Laptop\Documents\GitHub\pmonitor\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7DEDD3FD-7343-4A74-87B7-B145F0063953}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{27D496E0-5BAC-48E7-A62E-B6181A52E049}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -168,9 +168,6 @@
     <t>قرص ماشین ظرفشویی هوم پلاس ۲۴ عددی</t>
   </si>
   <si>
-    <t>کره حیوانی پاستوریزه پاک - ۵۰ گرم</t>
-  </si>
-  <si>
     <t>https://www.digikala.com/fresh/product/dkp-1888876/</t>
   </si>
   <si>
@@ -249,9 +246,6 @@
     <t>https://www.digikala.com/product/dkp-12510113/</t>
   </si>
   <si>
-    <t>https://www.digikala.com/product/dkp-20435174</t>
-  </si>
-  <si>
     <t>https://www.digikala.com/product/dkp-2323723/</t>
   </si>
   <si>
@@ -291,9 +285,6 @@
     <t>https://www.digikala.com/product/dkp-11602682/</t>
   </si>
   <si>
-    <t>https://www.digikala.com/fresh/product/dkp-1576539/</t>
-  </si>
-  <si>
     <t>https://www.digikala.com/product/dkp-4262387/</t>
   </si>
   <si>
@@ -391,6 +382,15 @@
   </si>
   <si>
     <t>https://www.digikala.com/product/dkp-2309086/</t>
+  </si>
+  <si>
+    <t>https://www.digikala.com/fresh/product/dkp-1513096/</t>
+  </si>
+  <si>
+    <t>کره حیوانی پاستوریزه رامک ۱۰۰ گرم</t>
+  </si>
+  <si>
+    <t>https://www.digikala.com/product/dkp-20435174/</t>
   </si>
 </sst>
 </file>
@@ -711,7 +711,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B61"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="96" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="96" workbookViewId="0">
+      <selection activeCell="A29" sqref="A29"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -732,20 +734,20 @@
         <v>22</v>
       </c>
       <c r="B2" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B3" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B4" t="s">
         <v>29</v>
@@ -753,7 +755,7 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B5" t="s">
         <v>8</v>
@@ -761,7 +763,7 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B6" t="s">
         <v>17</v>
@@ -769,18 +771,18 @@
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B7" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B8" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.3">
@@ -788,7 +790,7 @@
         <v>20</v>
       </c>
       <c r="B9" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.3">
@@ -796,7 +798,7 @@
         <v>21</v>
       </c>
       <c r="B10" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.3">
@@ -817,7 +819,7 @@
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B13" t="s">
         <v>32</v>
@@ -825,7 +827,7 @@
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B14" t="s">
         <v>15</v>
@@ -833,7 +835,7 @@
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B15" t="s">
         <v>31</v>
@@ -841,7 +843,7 @@
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B16" t="s">
         <v>13</v>
@@ -849,7 +851,7 @@
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B17" t="s">
         <v>30</v>
@@ -857,7 +859,7 @@
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B18" t="s">
         <v>3</v>
@@ -865,7 +867,7 @@
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="B19" t="s">
         <v>34</v>
@@ -876,7 +878,7 @@
         <v>25</v>
       </c>
       <c r="B20" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.3">
@@ -889,7 +891,7 @@
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B22" t="s">
         <v>14</v>
@@ -905,7 +907,7 @@
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B24" t="s">
         <v>2</v>
@@ -916,12 +918,12 @@
         <v>26</v>
       </c>
       <c r="B25" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B26" t="s">
         <v>0</v>
@@ -929,7 +931,7 @@
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B27" t="s">
         <v>16</v>
@@ -937,15 +939,15 @@
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B28" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A29" t="s">
-        <v>74</v>
+      <c r="A29" s="1" t="s">
+        <v>121</v>
       </c>
       <c r="B29" t="s">
         <v>40</v>
@@ -953,7 +955,7 @@
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="B30" t="s">
         <v>41</v>
@@ -961,7 +963,7 @@
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B31" t="s">
         <v>42</v>
@@ -969,15 +971,15 @@
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="B32" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="B33" t="s">
         <v>12</v>
@@ -985,7 +987,7 @@
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="B34" t="s">
         <v>43</v>
@@ -993,23 +995,23 @@
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="B35" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="B36" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="B37" t="s">
         <v>44</v>
@@ -1017,7 +1019,7 @@
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="B38" t="s">
         <v>45</v>
@@ -1025,7 +1027,7 @@
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="B39" t="s">
         <v>46</v>
@@ -1033,23 +1035,23 @@
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="B40" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="B41" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="B42" t="s">
         <v>1</v>
@@ -1057,15 +1059,15 @@
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
-        <v>88</v>
+        <v>119</v>
       </c>
       <c r="B43" t="s">
-        <v>47</v>
+        <v>120</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="B44" t="s">
         <v>11</v>
@@ -1073,15 +1075,15 @@
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B45" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B46" t="s">
         <v>4</v>
@@ -1089,7 +1091,7 @@
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="B47" t="s">
         <v>5</v>
@@ -1097,26 +1099,26 @@
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="B48" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="B49" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="B50" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.3">
@@ -1124,28 +1126,28 @@
         <v>27</v>
       </c>
       <c r="B51" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="B52" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="B53" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="B54" t="s">
         <v>7</v>
@@ -1156,52 +1158,52 @@
         <v>28</v>
       </c>
       <c r="B55" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="B56" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A57" s="1" t="s">
-        <v>121</v>
+      <c r="A57" t="s">
+        <v>118</v>
       </c>
       <c r="B57" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="B58" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="B59" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="B60" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="B61" t="s">
         <v>33</v>
